--- a/DDAf_2024_Tableau_annexe_Tab19.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab19.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA138812-6E11-4008-9A77-AF1434495C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFC73A62-46F8-4929-86DB-2D20DE1F7C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1A2CED1-50C7-449A-B702-790B2E23166F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{FC4BDAA4-CFA8-44D3-B9FF-48506C7C3EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="179">
   <si>
     <t>Tableau 19 : Commerce international et régional</t>
   </si>
@@ -560,13 +560,10 @@
     <t>Source : Calculs de l'auteur basés sur la BACI (Base de données sur le commerce international) rapportée au niveau des produits par CEPII (mise à jour le 30/01/2024).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2024-fr.</t>
   </si>
   <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
@@ -582,32 +579,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -620,6 +603,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -693,6 +684,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -701,10 +699,30 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -719,13 +737,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFD42C2D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE3DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,24 +758,11 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -766,7 +771,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -774,20 +779,42 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -795,7 +822,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top/>
@@ -805,7 +832,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -813,29 +840,36 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,304 +877,385 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1456,5734 +1571,5753 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91548D51-099D-4952-B9E8-FD926F947CEA}">
-  <sheetPr codeName="Sheet25"/>
-  <dimension ref="A1:R114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54F4E35-673D-49FC-A75A-430F10C5DC0E}">
+  <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="78" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="112" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="112" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="16">
         <v>2.40530723919513</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="17">
         <v>1.7596639685970801</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="18">
         <v>2.7870336685104999</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="17">
         <v>40.2705654825278</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="17">
         <v>24.5694021858064</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="19">
         <v>2.42490849436231</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="16">
         <v>3.8983429244281602</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="17">
         <v>3.4494143808173998</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="18">
         <v>5.70253762661953</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="17">
         <v>23.7565373625829</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="17">
         <v>30.381663386322</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="19">
         <v>4.3367951418868396</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="20">
         <v>504.49323800000002</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="21">
         <v>6680.8616419999998</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="21">
         <v>7.02113182195394</v>
       </c>
-      <c r="R3" s="13">
-        <v>40.8207916107622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="R3" s="19">
+        <v>40.813442678227403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="23">
         <v>13.201627444460399</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="24">
         <v>13.093832476764501</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="24">
         <v>13.224871698482501</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="24">
         <v>3.1726938861254501</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="24">
         <v>18.817711449402299</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="25">
         <v>2.7256774873010601</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="23">
         <v>71.468807746758003</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="24">
         <v>71.426449671862002</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="24">
         <v>71.623167893370095</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="24">
         <v>3.0188466927073301</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="24">
         <v>7.6086219292762101</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="25">
         <v>1.3702156615818799</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="26">
         <v>2537.0959170000001</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="27">
         <v>1616.050804</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="27">
         <v>61.088521245141898</v>
       </c>
-      <c r="R4" s="19">
-        <v>43.553557967048903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="R4" s="25">
+        <v>43.624379790981301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="29">
         <v>85.584204226922495</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="30">
         <v>74.300270013396002</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="30">
         <v>89.0914912739713</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="30">
         <v>3.6948865017039999E-2</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="30">
         <v>3.0395280888388698</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="31">
         <v>0.68060865748582999</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="29">
         <v>82.085524847165999</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="30">
         <v>79.905845055910106</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="30">
         <v>85.124820349013405</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="30">
         <v>4.0061722216338902</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="30">
         <v>2.30846330973114</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="31">
         <v>3.37301869952497</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="32">
         <v>888.09713399999998</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="33">
         <v>228.96571</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="33">
         <v>79.502880144136299</v>
       </c>
-      <c r="R5" s="25">
-        <v>43.064653391471403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="R5" s="31">
+        <v>43.829967379074297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="29">
         <v>39.410924042128102</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="30">
         <v>39.2680158336792</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="30">
         <v>39.822868254811098</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="30">
         <v>1.78326839457099</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="30">
         <v>19.548955350979401</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="31">
         <v>27.931812578799299</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="29">
         <v>82.331565935905004</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="30">
         <v>82.296294435314707</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="30">
         <v>82.523013013421107</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="30">
         <v>6.1708253912208999</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="30">
         <v>1.6180747489546501</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="31">
         <v>0.41714312539325998</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="32">
         <v>743.24815800000101</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="33">
         <v>252.124967</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="33">
         <v>74.670305971944003</v>
       </c>
-      <c r="R6" s="25">
-        <v>44.887881112037398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="R6" s="31">
+        <v>42.694563367900699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="29">
         <v>29.432073826366</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="30">
         <v>13.644830803026</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="30">
         <v>30.909613838142199</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="30">
         <v>1.94947875017498</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="30">
         <v>23.6914515648232</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="31">
         <v>4.5175682539796496</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="29">
         <v>35.645482750551601</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="30">
         <v>30.223883244443101</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="30">
         <v>37.288189202312097</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="30">
         <v>15.640162982097101</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="30">
         <v>7.64254339330299</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="31">
         <v>1.9918165263574601</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="32">
         <v>487.03977300000003</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="33">
         <v>635.70751499999994</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="33">
         <v>43.379287414497902</v>
       </c>
-      <c r="R7" s="25">
-        <v>8.8218349821157105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="R7" s="31">
+        <v>9.0747867376323406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="29">
         <v>15.1653055476937</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="30">
         <v>14.6058970194249</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="30">
         <v>16.451471780797402</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="30">
         <v>5.8547586680294801</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="30">
         <v>22.669156048638701</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="31">
         <v>1.47395651539198</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="29">
         <v>30.4759405807755</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="30">
         <v>25.065881286093202</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="30">
         <v>31.171490573750901</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="30">
         <v>12.0627036927366</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="30">
         <v>4.5028467002628902</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="31">
         <v>1.1611691631324801</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="32">
         <v>6021.4186380000001</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="33">
         <v>5199.5406480000001</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="33">
         <v>53.662244773606098</v>
       </c>
-      <c r="R8" s="25">
-        <v>49.1172439812714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="R8" s="31">
+        <v>51.1178042333338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="29">
         <v>50.651831585723997</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="30">
         <v>46.468020272935902</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="30">
         <v>51.370568177464698</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="30">
         <v>10.151180043157201</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="30">
         <v>20.967690182051001</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="31">
         <v>2.8307993885828702</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="29">
         <v>47.9761891862154</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="30">
         <v>46.389044861774899</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="30">
         <v>54.588104526197</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="30">
         <v>7.2052247957257398</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="30">
         <v>12.3248685539645</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="31">
         <v>3.1337968928706599</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="32">
         <v>1863.310641</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="33">
         <v>1602.319227</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="33">
         <v>53.7654253907764</v>
       </c>
-      <c r="R9" s="25">
-        <v>40.457278860711497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="R9" s="31">
+        <v>42.259728200385403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="29">
         <v>17.5681018082511</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="30">
         <v>15.5412712660828</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="30">
         <v>19.907256069304999</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="30">
         <v>17.904530982863399</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="30">
         <v>18.7314196297996</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="31">
         <v>7.2153969028965603</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="29">
         <v>8.4358112610827103</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="30">
         <v>7.09885857768574</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="30">
         <v>11.7256574871436</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="30">
         <v>20.852139896507602</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="30">
         <v>23.075451599783701</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="31">
         <v>5.3972528946134801</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="32">
         <v>10445.705324</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="33">
         <v>45204.287436999999</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="33">
         <v>18.770362412913801</v>
       </c>
-      <c r="R10" s="25">
-        <v>33.538436007874999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="R10" s="31">
+        <v>33.538436009656401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="23">
         <v>18.493976591002301</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="24">
         <v>5.34892588913198</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="24">
         <v>22.970821107048302</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="24">
         <v>17.5324529342025</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="24">
         <v>2.85466107220984</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="25">
         <v>0.83480918120521996</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="23">
         <v>40.255778495552498</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="24">
         <v>32.336090866180001</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="24">
         <v>58.400383572641303</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="24">
         <v>13.6247763865469</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="24">
         <v>5.5478256028482704</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="25">
         <v>1.8554197330039</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="26">
         <v>3539.18815</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="27">
         <v>2247.430249</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="27">
         <v>61.161595701759403</v>
       </c>
-      <c r="R11" s="19">
-        <v>41.817764455404102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="R11" s="25">
+        <v>42.729213004668402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="35">
         <v>24.274647446108801</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="36">
         <v>22.690247056387499</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="36">
         <v>24.330977410656001</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="36">
         <v>7.4440998398019396</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="36">
         <v>7.4257492228188404</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="37">
         <v>0.98267212715867003</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="35">
         <v>52.545948308117403</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="36">
         <v>47.958185848230102</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="36">
         <v>52.608795590430603</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="36">
         <v>14.6027697165547</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="36">
         <v>3.7958550880132602</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="37">
         <v>0.60504377937424003</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="38">
         <v>2795.8849019999998</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="39">
         <v>1499.0463990000001</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="39">
         <v>65.097313695076494</v>
       </c>
-      <c r="R12" s="25">
-        <v>23.669309476004301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="R12" s="37">
+        <v>23.8201475980708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="42">
         <v>15.8905240253026</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="43">
         <v>13.481340810433901</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="44">
         <v>17.700699329206799</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="43">
         <v>20.717414090918702</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="43">
         <v>18.812921709026099</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="45">
         <v>5.15920964680104</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="42">
         <v>20.278634968116499</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="43">
         <v>18.042129741737099</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="44">
         <v>23.730924408674099</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="43">
         <v>17.731220162185</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="43">
         <v>18.041521487174901</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="45">
         <v>4.0393307256355602</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="46">
         <v>29825.481875000001</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="47">
         <v>65166.334598000001</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="47">
         <v>31.3979487732793</v>
       </c>
-      <c r="R13" s="32">
-        <v>35.396603279378603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="R13" s="45">
+        <v>35.549619576237099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="49">
         <v>33.790653242096703</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="50">
         <v>13.9249979089289</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="30">
         <v>34.309509169745802</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="50">
         <v>5.0802130615217598</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="50">
         <v>11.331806372563101</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="51">
         <v>2.2421704019687798</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="49">
         <v>28.6162490276295</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="50">
         <v>1.04441476097144</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="30">
         <v>29.736185366078299</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="50">
         <v>15.5322545378218</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="50">
         <v>9.9817810863802396</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="51">
         <v>0.91274723118959</v>
       </c>
-      <c r="O14" s="26">
+      <c r="O14" s="52">
         <v>263.32660099999998</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="53">
         <v>318.55237399999999</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="53">
         <v>45.2545309787143</v>
       </c>
-      <c r="R14" s="25">
-        <v>7.1311334677131102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="R14" s="51">
+        <v>7.4290142971997897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="29">
         <v>3.7276102042344701</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="30">
         <v>3.6015754016507202</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="30">
         <v>4.3300656753056703</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="30">
         <v>8.2664151393253391</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="30">
         <v>56.871610207409397</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="31">
         <v>1.61003115503552</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="29">
         <v>0.14858380937348001</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="30">
         <v>0.11214193189183</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="30">
         <v>7.3075184332863099</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="30">
         <v>38.6737403910845</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="30">
         <v>22.681052494228201</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="31">
         <v>2.4295193392114101</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="32">
         <v>307.894972</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="33">
         <v>3474.1031050000001</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="33">
         <v>8.1410663287336202</v>
       </c>
-      <c r="R15" s="25">
-        <v>19.960166571937201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="R15" s="31">
+        <v>19.4743321602155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="29">
         <v>5.04616655152285</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="30">
         <v>4.5561383863649398</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="30">
         <v>5.5402375912990101</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="30">
         <v>10.1891634767962</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="30">
         <v>25.6844222597379</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="31">
         <v>0.37608902798489002</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="29">
         <v>37.998707251334103</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="30">
         <v>31.463366617100501</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="30">
         <v>39.249273868781003</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="30">
         <v>7.5720834034628499</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="30">
         <v>20.047735231865801</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="31">
         <v>8.4644783862128907</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O16" s="32">
         <v>80.740589000000099</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="33">
         <v>151.92932400000001</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="33">
         <v>34.701774698304</v>
       </c>
-      <c r="R16" s="25">
-        <v>13.708937782363201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="R16" s="31">
+        <v>13.7289820231133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="55">
         <v>4.295748817944E-2</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="18">
         <v>9.9980337123999996E-4</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="18">
         <v>4.450971262193E-2</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="18">
         <v>21.336444988476</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="18">
         <v>43.682316962171399</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="56">
         <v>0.10854304585051</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="55">
         <v>7.13372083655974</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="18">
         <v>0.1078165706433</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="18">
         <v>7.8261362018202396</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="18">
         <v>25.370549967016402</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="18">
         <v>23.4725023569877</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="56">
         <v>7.1203477249529099</v>
       </c>
-      <c r="O17" s="39">
+      <c r="O17" s="57">
         <v>47.318904000000003</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="58">
         <v>416.846656</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="58">
         <v>10.1944021870128</v>
       </c>
-      <c r="R17" s="38">
-        <v>47.610507564873203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="R17" s="56">
+        <v>38.233387847591999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="55">
         <v>0.11694188566178999</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="18">
         <v>2.4947769232409999E-2</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="18">
         <v>1.28775813324793</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="18">
         <v>38.9773476892994</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="18">
         <v>8.1388470729351194</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="56">
         <v>1.2055703070156401</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="55">
         <v>5.8312099886161297</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="18">
         <v>1.50047994236681</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="18">
         <v>13.3629750420761</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="18">
         <v>25.941906805513401</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="18">
         <v>25.785068639443701</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="56">
         <v>4.6307795314837996</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O18" s="57">
         <v>191.93523300000001</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="58">
         <v>1549.432765</v>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="58">
         <v>11.022094882899101</v>
       </c>
-      <c r="R18" s="38">
-        <v>84.179969582365004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="R18" s="56">
+        <v>82.520932154697903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="23">
         <v>13.313239965343501</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="24">
         <v>0.36480689004790001</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="24">
         <v>13.4443726220592</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="24">
         <v>54.446568928485902</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="24">
         <v>7.8552386489010004</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="25">
         <v>0.63310116346220002</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="23">
         <v>29.323563758471199</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="24">
         <v>0.22419887302354</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="24">
         <v>30.501358127904201</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="24">
         <v>32.980078807576099</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="24">
         <v>11.1810342247232</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="25">
         <v>1.91828874672978</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="26">
         <v>2726.804932</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="27">
         <v>5320.81648699999</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="27">
         <v>33.883364910309602</v>
       </c>
-      <c r="R19" s="19">
-        <v>43.2444721325272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="R19" s="25">
+        <v>42.1405097169824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="55">
         <v>1.9446805407449998E-2</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="18">
         <v>1.6622181194859999E-2</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="18">
         <v>21.6665593166794</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="18">
         <v>15.1724251660848</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="18">
         <v>31.145937793140401</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="56">
         <v>2.6604286268060902</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="55">
         <v>2.5127361745906902</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="18">
         <v>3.4234030356500001E-3</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="18">
         <v>48.379202553680301</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="18">
         <v>13.647066286368499</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="18">
         <v>19.8455982750564</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="56">
         <v>4.0339426494128396</v>
       </c>
-      <c r="O20" s="39">
+      <c r="O20" s="57">
         <v>589.01307199999997</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="58">
         <v>357.13376599999998</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="58">
         <v>62.253875227768901</v>
       </c>
-      <c r="R20" s="38">
-        <v>55.4973767830745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="R20" s="56">
+        <v>56.369554260410503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="55">
         <v>4.5358847719409998E-2</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="18">
         <v>2.3243269841989999E-2</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="18">
         <v>0.87219221716688</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="18">
         <v>43.250464456990699</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="18">
         <v>22.138008827848701</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="56">
         <v>2.93156168177202</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="55">
         <v>0.32181170283850002</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="18">
         <v>0.12605753363309999</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="18">
         <v>8.32949549595617</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="18">
         <v>22.149840687033599</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="18">
         <v>37.411486573083202</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="56">
         <v>4.9780082152093597</v>
       </c>
-      <c r="O21" s="39">
+      <c r="O21" s="57">
         <v>99.314877999999993</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="58">
         <v>1094.693033</v>
       </c>
-      <c r="Q21" s="37">
+      <c r="Q21" s="58">
         <v>8.3177738677478494</v>
       </c>
-      <c r="R21" s="38">
-        <v>45.5154538354397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="R21" s="56">
+        <v>44.845321877273904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="35">
         <v>8.9568839417836905</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="36">
         <v>2.7703404225681498</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="36">
         <v>9.51273078424971</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="36">
         <v>0.49773518725965998</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="36">
         <v>71.950552264297201</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="37">
         <v>2.9080623422290901</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="35">
         <v>19.832537063202299</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="36">
         <v>1.54395094600392</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="36">
         <v>34.426806712946302</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="36">
         <v>5.92137383618123</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="36">
         <v>46.031334070815298</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22" s="37">
         <v>1.8170695845465099</v>
       </c>
-      <c r="O22" s="26">
+      <c r="O22" s="38">
         <v>6.325145</v>
       </c>
-      <c r="P22" s="27">
+      <c r="P22" s="39">
         <v>58.506934999999999</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22" s="39">
         <v>9.7561963151575597</v>
       </c>
-      <c r="R22" s="25">
-        <v>17.334516383164399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="R22" s="37">
+        <v>17.334516380739299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="42">
         <v>5.9910971852883597</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="43">
         <v>0.57551741710823001</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="44">
         <v>9.1130768157125601</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="43">
         <v>38.443927968199198</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="43">
         <v>19.737561223247599</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="45">
         <v>1.3204699692128801</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="42">
         <v>15.9631353141597</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="43">
         <v>1.13562541923409</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="44">
         <v>21.9524385474915</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="43">
         <v>30.148444311554599</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="43">
         <v>18.6063916595844</v>
       </c>
-      <c r="N23" s="32">
+      <c r="N23" s="45">
         <v>2.9527463188793601</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="46">
         <v>4312.6743260000003</v>
       </c>
-      <c r="P23" s="34">
+      <c r="P23" s="47">
         <v>12742.014445000001</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="Q23" s="47">
         <v>25.287323526731999</v>
       </c>
-      <c r="R23" s="32">
-        <v>38.730335956078903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="R23" s="45">
+        <v>37.433046433438903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="49">
         <v>3.2458213261196498</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="50">
         <v>0.94975991125130999</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="30">
         <v>3.2458213261196498</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="50">
         <v>0.11618831716377</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="50">
         <v>15.1699986724435</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="51">
         <v>8.5796061132149397</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="49">
         <v>13.5404703630465</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="50">
         <v>11.254350375211001</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="30">
         <v>13.5404703630465</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="50">
         <v>19.320904358673101</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="50">
         <v>14.1420077808164</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N24" s="51">
         <v>0.62239766432194998</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="52">
         <v>14.292752999999999</v>
       </c>
-      <c r="P24" s="27">
+      <c r="P24" s="53">
         <v>112.20835099999999</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="53">
         <v>11.2985203670634</v>
       </c>
-      <c r="R24" s="25">
-        <v>13.328085963304501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="R24" s="51">
+        <v>13.5904709826951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="29">
         <v>65.436133735477398</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="30">
         <v>62.567198962185202</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="30">
         <v>66.745430391193295</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="30">
         <v>16.5826991555954</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="30">
         <v>2.2921317841059299</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="31">
         <v>1.3079138158285299</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="29">
         <v>8.0485622029319597</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="30">
         <v>1.2558878916619101</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="30">
         <v>8.6196327158889208</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="30">
         <v>37.750976607233</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="30">
         <v>2.7937229244909201</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N25" s="31">
         <v>1.9660858219870101</v>
       </c>
-      <c r="O25" s="26">
+      <c r="O25" s="32">
         <v>622.652018</v>
       </c>
-      <c r="P25" s="27">
+      <c r="P25" s="33">
         <v>3592.7671810000002</v>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25" s="33">
         <v>14.770820850930001</v>
       </c>
-      <c r="R25" s="25">
-        <v>133.47771200226899</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="R25" s="31">
+        <v>152.281685951611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="29">
         <v>1.9004202104365699</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="30">
         <v>1.8952788763375701</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="30">
         <v>1.90783235525534</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="30">
         <v>52.260919825891101</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="30">
         <v>1.0022825607861601</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="31">
         <v>4.223811686541E-2</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="29">
         <v>0.68052717211781</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="30">
         <v>0.27810190363645998</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="30">
         <v>1.94118656716941</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="30">
         <v>33.632087251123401</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="30">
         <v>10.1936554734034</v>
       </c>
-      <c r="N26" s="25">
+      <c r="N26" s="31">
         <v>7.1540963041408396</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O26" s="32">
         <v>5.2126539999999997</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P26" s="33">
         <v>212.47465600000001</v>
       </c>
-      <c r="Q26" s="24">
+      <c r="Q26" s="33">
         <v>2.3945603443765302</v>
       </c>
-      <c r="R26" s="25" t="s">
+      <c r="R26" s="31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="29">
         <v>10.509619171057301</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="30">
         <v>10.2352228349482</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="30">
         <v>11.8037908388016</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="30">
         <v>4.1585544215673096</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="30">
         <v>21.6317452055841</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="31">
         <v>13.1454554048077</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="29">
         <v>8.6804587857958708</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="30">
         <v>4.1991884378208901</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="30">
         <v>10.6258640337582</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="30">
         <v>23.350252365149299</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="30">
         <v>14.319560692422201</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="31">
         <v>9.1198707746668592</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O27" s="32">
         <v>1060.5823479999999</v>
       </c>
-      <c r="P27" s="27">
+      <c r="P27" s="33">
         <v>5997.233999</v>
       </c>
-      <c r="Q27" s="24">
+      <c r="Q27" s="33">
         <v>15.027060720428199</v>
       </c>
-      <c r="R27" s="25">
-        <v>8.6825781473961996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="R27" s="31">
+        <v>8.7847747074909392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="29">
         <v>35.721554600945304</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="30">
         <v>27.757104934441099</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="30">
         <v>38.926686927008603</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="30">
         <v>3.2585591464442101</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="30">
         <v>15.864295296125199</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="31">
         <v>9.8126094291221708</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="29">
         <v>6.2719796762350297</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="30">
         <v>3.6754229785734398</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="30">
         <v>9.5484261841145806</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="30">
         <v>25.587166013158399</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="30">
         <v>7.8968478668420596</v>
       </c>
-      <c r="N28" s="25">
+      <c r="N28" s="31">
         <v>2.5378781022064101</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O28" s="32">
         <v>1740.729744</v>
       </c>
-      <c r="P28" s="27">
+      <c r="P28" s="33">
         <v>10922.518208</v>
       </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="33">
         <v>13.7463133518212</v>
       </c>
-      <c r="R28" s="25">
-        <v>12.185102707423599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="R28" s="31">
+        <v>12.173903334558499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="29">
         <v>6.1194101498332598</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="30">
         <v>2.2808937090149102</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="30">
         <v>6.6688286371189101</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="30">
         <v>12.720165917905801</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="30">
         <v>26.950282084217498</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="31">
         <v>17.6382278950238</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="29">
         <v>13.0117425141474</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="30">
         <v>5.1422286305464597</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="30">
         <v>13.2921109262518</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="30">
         <v>24.6329586194108</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="30">
         <v>15.9109391640447</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="31">
         <v>1.7878511856030499</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O29" s="32">
         <v>515.90987600000005</v>
       </c>
-      <c r="P29" s="27">
+      <c r="P29" s="33">
         <v>2617.8169269999999</v>
       </c>
-      <c r="Q29" s="24">
+      <c r="Q29" s="33">
         <v>16.463141442518399</v>
       </c>
-      <c r="R29" s="25">
-        <v>30.785442199441199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="R29" s="31">
+        <v>30.417452199998401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="29">
         <v>40.820481525083402</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="30">
         <v>13.2165091875531</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="30">
         <v>41.425908758538803</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="30">
         <v>0.91530823763248004</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="30">
         <v>26.764447095593699</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="31">
         <v>7.0314619208305897</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="29">
         <v>13.5497325660202</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="30">
         <v>2.1138941407846001</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="30">
         <v>14.1150509343182</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="30">
         <v>16.2922139817579</v>
       </c>
-      <c r="M30" s="24">
+      <c r="M30" s="30">
         <v>18.076087384581399</v>
       </c>
-      <c r="N30" s="25">
+      <c r="N30" s="31">
         <v>2.8785715883139198</v>
       </c>
-      <c r="O30" s="26">
+      <c r="O30" s="32">
         <v>575.63075100000003</v>
       </c>
-      <c r="P30" s="27">
+      <c r="P30" s="33">
         <v>2185.5396230000001</v>
       </c>
-      <c r="Q30" s="24">
+      <c r="Q30" s="33">
         <v>20.847346343431401</v>
       </c>
-      <c r="R30" s="25">
-        <v>38.805899424063199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="R30" s="31">
+        <v>38.654775700319099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="29">
         <v>36.953533954490297</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="30">
         <v>8.3422032805062791</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="30">
         <v>37.377330582392901</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="30">
         <v>2.0272916996464398</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="30">
         <v>5.7784155674111597</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="31">
         <v>3.4441038819302001</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="29">
         <v>26.893469718580199</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="30">
         <v>22.526593022015</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="30">
         <v>31.779329841604699</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="30">
         <v>18.719495884289799</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M31" s="30">
         <v>9.8811889382088598</v>
       </c>
-      <c r="N31" s="25">
+      <c r="N31" s="31">
         <v>2.3696563154277301</v>
       </c>
-      <c r="O31" s="26">
+      <c r="O31" s="32">
         <v>958.55568500000004</v>
       </c>
-      <c r="P31" s="27">
+      <c r="P31" s="33">
         <v>1177.060532</v>
       </c>
-      <c r="Q31" s="24">
+      <c r="Q31" s="33">
         <v>44.884267003110097</v>
       </c>
-      <c r="R31" s="25">
-        <v>22.498902575952801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="R31" s="31">
+        <v>22.4989025754126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="29">
         <v>13.993278866274901</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="30">
         <v>11.299015147784999</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="30">
         <v>15.992260537698</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="30">
         <v>1.8176665453020002E-2</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="30">
         <v>43.758513149998997</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="31">
         <v>1.1548736358812799</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="29">
         <v>7.8536127742448203</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="30">
         <v>2.4965536856397699</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K32" s="30">
         <v>7.9410784428813397</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L32" s="30">
         <v>5.50689053796905</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="30">
         <v>35.006850819505402</v>
       </c>
-      <c r="N32" s="25">
+      <c r="N32" s="31">
         <v>1.4659819951928701</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O32" s="32">
         <v>56.286198000000098</v>
       </c>
-      <c r="P32" s="27">
+      <c r="P32" s="33">
         <v>323.169938</v>
       </c>
-      <c r="Q32" s="24">
+      <c r="Q32" s="33">
         <v>14.833387224498599</v>
       </c>
-      <c r="R32" s="25">
-        <v>113.505068309404</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="R32" s="31">
+        <v>109.02150369389101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="29">
         <v>1.34669422138855</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="30">
         <v>0.14013492478985001</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="30">
         <v>1.39081334977578</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="30">
         <v>1.23478138882567</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="30">
         <v>5.6355097904699196</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="31">
         <v>8.4005946107859997E-2</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="29">
         <v>7.4189796041978697</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="30">
         <v>6.6821648579430599</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K33" s="30">
         <v>7.6176128166136303</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="30">
         <v>18.629076317691698</v>
       </c>
-      <c r="M33" s="24">
+      <c r="M33" s="30">
         <v>2.86919321953178</v>
       </c>
-      <c r="N33" s="25">
+      <c r="N33" s="31">
         <v>1.4913592225257699</v>
       </c>
-      <c r="O33" s="26">
+      <c r="O33" s="32">
         <v>40.109318999999999</v>
       </c>
-      <c r="P33" s="27">
+      <c r="P33" s="33">
         <v>1980.8818329999999</v>
       </c>
-      <c r="Q33" s="24">
+      <c r="Q33" s="33">
         <v>1.98463605148925</v>
       </c>
-      <c r="R33" s="25">
-        <v>17.313622212463301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="R33" s="31">
+        <v>17.313622215918699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="55">
         <v>8.1279404949640005E-2</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="18">
         <v>8.1279404949640005E-2</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="18">
         <v>0.28315476336546003</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="18">
         <v>43.533156445208498</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="18">
         <v>26.0464088447888</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="56">
         <v>5.5556851102299999E-3</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="55">
         <v>22.717163125326302</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34" s="18">
         <v>22.7159918856361</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="18">
         <v>23.427949125040598</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L34" s="18">
         <v>16.652530808155799</v>
       </c>
-      <c r="M34" s="37">
+      <c r="M34" s="18">
         <v>7.5396978938008301</v>
       </c>
-      <c r="N34" s="38">
+      <c r="N34" s="56">
         <v>4.1088732138184296</v>
       </c>
-      <c r="O34" s="39">
+      <c r="O34" s="57">
         <v>96.555732999999904</v>
       </c>
-      <c r="P34" s="40">
+      <c r="P34" s="58">
         <v>213.17496199999999</v>
       </c>
-      <c r="Q34" s="37">
+      <c r="Q34" s="58">
         <v>31.174092383707698</v>
       </c>
-      <c r="R34" s="38">
-        <v>59.822589313235802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="R34" s="56">
+        <v>58.1138442393083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="29">
         <v>8.6559019821821508</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="30">
         <v>0.35274737673834999</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="30">
         <v>8.6832766732948592</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="30">
         <v>15.8785165926849</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="30">
         <v>10.5380645846009</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="31">
         <v>0.68773445867354999</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="29">
         <v>10.6172511942044</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="30">
         <v>1.24114036358108</v>
       </c>
-      <c r="K35" s="24">
+      <c r="K35" s="30">
         <v>10.813962563129801</v>
       </c>
-      <c r="L35" s="24">
+      <c r="L35" s="30">
         <v>22.220744539908701</v>
       </c>
-      <c r="M35" s="24">
+      <c r="M35" s="30">
         <v>9.7884194156263202</v>
       </c>
-      <c r="N35" s="25">
+      <c r="N35" s="31">
         <v>1.37529304405526</v>
       </c>
-      <c r="O35" s="26">
+      <c r="O35" s="32">
         <v>605.55099900000096</v>
       </c>
-      <c r="P35" s="27">
+      <c r="P35" s="33">
         <v>3615.658844</v>
       </c>
-      <c r="Q35" s="24">
+      <c r="Q35" s="33">
         <v>14.345437007927501</v>
       </c>
-      <c r="R35" s="25">
-        <v>19.426270949847002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="R35" s="31">
+        <v>19.4203637389416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="29">
         <v>28.969374063084501</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="30">
         <v>12.837577734541499</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="30">
         <v>29.9444751412661</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="30">
         <v>4.4877506271054397</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="30">
         <v>9.0476510676595403</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="31">
         <v>1.5397967784084401</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="29">
         <v>11.485247747608501</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="30">
         <v>2.6629134335564899</v>
       </c>
-      <c r="K36" s="24">
+      <c r="K36" s="30">
         <v>12.781823857047099</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L36" s="30">
         <v>29.7519787759847</v>
       </c>
-      <c r="M36" s="24">
+      <c r="M36" s="30">
         <v>7.2987550190867303</v>
       </c>
-      <c r="N36" s="25">
+      <c r="N36" s="31">
         <v>1.39361626126205</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O36" s="32">
         <v>2257.569219</v>
       </c>
-      <c r="P36" s="27">
+      <c r="P36" s="33">
         <v>8146.9343840000101</v>
       </c>
-      <c r="Q36" s="24">
+      <c r="Q36" s="33">
         <v>21.698000261627701</v>
       </c>
-      <c r="R36" s="25">
-        <v>15.4229780503788</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="R36" s="31">
+        <v>16.041496489134101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="35">
         <v>16.960458600763801</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="36">
         <v>12.6273246828571</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="36">
         <v>18.718635236919599</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="36">
         <v>1.35485271087546</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="36">
         <v>17.445022716292101</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="37">
         <v>4.39388830103624</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="35">
         <v>23.104757626126201</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="36">
         <v>20.737792768402699</v>
       </c>
-      <c r="K37" s="24">
+      <c r="K37" s="36">
         <v>25.619151082985201</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L37" s="36">
         <v>23.055556974638399</v>
       </c>
-      <c r="M37" s="24">
+      <c r="M37" s="36">
         <v>15.1792490788935</v>
       </c>
-      <c r="N37" s="25">
+      <c r="N37" s="37">
         <v>2.93740735940154</v>
       </c>
-      <c r="O37" s="26">
+      <c r="O37" s="38">
         <v>658.78642200000002</v>
       </c>
-      <c r="P37" s="27">
+      <c r="P37" s="39">
         <v>1621.9337350000001</v>
       </c>
-      <c r="Q37" s="24">
+      <c r="Q37" s="39">
         <v>28.885017742227099</v>
       </c>
-      <c r="R37" s="25">
-        <v>12.5477577169633</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="R37" s="37">
+        <v>12.8554791614183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="42">
         <v>22.3100623262829</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="43">
         <v>12.3535327494698</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="44">
         <v>23.541628380733201</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="43">
         <v>7.3091631955267902</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="43">
         <v>15.6685308579926</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="45">
         <v>6.1793350202475903</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I38" s="42">
         <v>10.682695297780301</v>
       </c>
-      <c r="J38" s="31">
+      <c r="J38" s="43">
         <v>4.8942927672700103</v>
       </c>
-      <c r="K38" s="31">
+      <c r="K38" s="44">
         <v>12.3866267795583</v>
       </c>
-      <c r="L38" s="31">
+      <c r="L38" s="43">
         <v>25.117000816468799</v>
       </c>
-      <c r="M38" s="31">
+      <c r="M38" s="43">
         <v>9.8782515753637608</v>
       </c>
-      <c r="N38" s="32">
+      <c r="N38" s="45">
         <v>2.8449764367599699</v>
       </c>
-      <c r="O38" s="33">
+      <c r="O38" s="46">
         <v>9208.4237190000003</v>
       </c>
-      <c r="P38" s="34">
+      <c r="P38" s="47">
         <v>42719.373173</v>
       </c>
-      <c r="Q38" s="31">
+      <c r="Q38" s="47">
         <v>17.7331299807534</v>
       </c>
-      <c r="R38" s="32">
-        <v>15.705382160973</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="R38" s="45">
+        <v>15.894885496073201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="16">
         <v>3.03180159147179</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="17">
         <v>3.18150530175344</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="18">
         <v>3.7775256590236199</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="17">
         <v>1.7266218107545599</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="17">
         <v>66.051404297663893</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="19">
         <v>5.3841847693256701</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I39" s="16">
         <v>1.6608923984303301</v>
       </c>
-      <c r="J39" s="37">
+      <c r="J39" s="17">
         <v>3.68800642357153</v>
       </c>
-      <c r="K39" s="37">
+      <c r="K39" s="18">
         <v>3.9872964632791899</v>
       </c>
-      <c r="L39" s="37">
+      <c r="L39" s="17">
         <v>18.325333012464402</v>
       </c>
-      <c r="M39" s="37">
+      <c r="M39" s="17">
         <v>39.850937873061099</v>
       </c>
-      <c r="N39" s="38">
+      <c r="N39" s="19">
         <v>3.4698669701405001</v>
       </c>
-      <c r="O39" s="39">
+      <c r="O39" s="20">
         <v>1100.4730589999999</v>
       </c>
-      <c r="P39" s="40">
+      <c r="P39" s="21">
         <v>22076.588295000001</v>
       </c>
-      <c r="Q39" s="37">
+      <c r="Q39" s="21">
         <v>4.7481129820199399</v>
       </c>
-      <c r="R39" s="38">
-        <v>35.4150588095264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="R39" s="19">
+        <v>30.616570795852301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="29">
         <v>9.9294527512518407</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="30">
         <v>5.6205098688310198</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="30">
         <v>12.032220235014799</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="30">
         <v>1.8706783953417001</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="30">
         <v>32.200813626359498</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="31">
         <v>5.8189541539751701</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="29">
         <v>1.7341075495009599</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="30">
         <v>0.30404971315113</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="30">
         <v>2.0053217111409301</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="30">
         <v>17.381643194563601</v>
       </c>
-      <c r="M40" s="24">
+      <c r="M40" s="30">
         <v>23.485625347174398</v>
       </c>
-      <c r="N40" s="25">
+      <c r="N40" s="31">
         <v>6.9056262870613301</v>
       </c>
-      <c r="O40" s="26">
+      <c r="O40" s="32">
         <v>1527.8528260000001</v>
       </c>
-      <c r="P40" s="27">
+      <c r="P40" s="33">
         <v>62894.039145000002</v>
       </c>
-      <c r="Q40" s="24">
+      <c r="Q40" s="33">
         <v>2.3716360685087801</v>
       </c>
-      <c r="R40" s="25">
-        <v>14.9047718233982</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="R40" s="31">
+        <v>14.9047718234666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="55">
         <v>0.95226521050634005</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="18">
         <v>0.90916081510653002</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="18">
         <v>1.00055628731477</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="18">
         <v>7.0314887973120097</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="18">
         <v>65.437623620783</v>
       </c>
-      <c r="H41" s="38">
+      <c r="H41" s="56">
         <v>6.2204112249482097</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="55">
         <v>9.5075530519707492</v>
       </c>
-      <c r="J41" s="37">
+      <c r="J41" s="18">
         <v>9.4777084029997507</v>
       </c>
-      <c r="K41" s="37">
+      <c r="K41" s="18">
         <v>9.5304421769012606</v>
       </c>
-      <c r="L41" s="37">
+      <c r="L41" s="18">
         <v>12.2745197208079</v>
       </c>
-      <c r="M41" s="37">
+      <c r="M41" s="18">
         <v>41.160475577543302</v>
       </c>
-      <c r="N41" s="38">
+      <c r="N41" s="56">
         <v>1.4712877560894499</v>
       </c>
-      <c r="O41" s="39">
+      <c r="O41" s="57">
         <v>808.23989800000004</v>
       </c>
-      <c r="P41" s="40">
+      <c r="P41" s="58">
         <v>4615.8165799999997</v>
       </c>
-      <c r="Q41" s="37">
+      <c r="Q41" s="58">
         <v>14.901022901922699</v>
       </c>
-      <c r="R41" s="38" t="s">
+      <c r="R41" s="56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="55">
         <v>9.6848952513117599</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="18">
         <v>3.4549234760664902</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="18">
         <v>13.5162838574168</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="18">
         <v>23.807255620140001</v>
       </c>
-      <c r="G42" s="37">
+      <c r="G42" s="18">
         <v>15.935406182404501</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="56">
         <v>0.1490684637161</v>
       </c>
-      <c r="I42" s="37">
+      <c r="I42" s="55">
         <v>12.726242989248499</v>
       </c>
-      <c r="J42" s="37">
+      <c r="J42" s="18">
         <v>8.4962356270606296</v>
       </c>
-      <c r="K42" s="37">
+      <c r="K42" s="18">
         <v>14.469441742568799</v>
       </c>
-      <c r="L42" s="37">
+      <c r="L42" s="18">
         <v>17.883948311657399</v>
       </c>
-      <c r="M42" s="37">
+      <c r="M42" s="18">
         <v>25.434109821047201</v>
       </c>
-      <c r="N42" s="38">
+      <c r="N42" s="56">
         <v>2.9914071007469101</v>
       </c>
-      <c r="O42" s="39">
+      <c r="O42" s="57">
         <v>367.91680300000002</v>
       </c>
-      <c r="P42" s="40">
+      <c r="P42" s="58">
         <v>2470.1719929999999</v>
       </c>
-      <c r="Q42" s="37">
+      <c r="Q42" s="58">
         <v>12.9635409405985</v>
       </c>
-      <c r="R42" s="38">
-        <v>42.132706397849198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="R42" s="56">
+        <v>42.567500208991703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="29">
         <v>5.9748357912361296</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="30">
         <v>1.4441477666492399</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="30">
         <v>8.1749114830728793</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="30">
         <v>0.94099796200798003</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="30">
         <v>55.830142301207303</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="31">
         <v>3.57193946617679</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="29">
         <v>2.5077513829982299</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J43" s="30">
         <v>2.28633124643004</v>
       </c>
-      <c r="K43" s="24">
+      <c r="K43" s="30">
         <v>3.3732781065333999</v>
       </c>
-      <c r="L43" s="24">
+      <c r="L43" s="30">
         <v>9.6427992116434602</v>
       </c>
-      <c r="M43" s="24">
+      <c r="M43" s="30">
         <v>48.8829279718408</v>
       </c>
-      <c r="N43" s="25">
+      <c r="N43" s="31">
         <v>6.2331257913407301</v>
       </c>
-      <c r="O43" s="26">
+      <c r="O43" s="32">
         <v>1588.188204</v>
       </c>
-      <c r="P43" s="27">
+      <c r="P43" s="33">
         <v>42320.030121999996</v>
       </c>
-      <c r="Q43" s="24">
+      <c r="Q43" s="33">
         <v>3.6170636490152601</v>
       </c>
-      <c r="R43" s="25">
-        <v>44.809639155649101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="R43" s="31">
+        <v>44.809639156712301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="35">
         <v>9.1183204881484006</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="36">
         <v>7.1253173774988996</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="36">
         <v>9.9030454246808102</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="36">
         <v>0.61312544717104001</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="36">
         <v>67.981524866373505</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H44" s="37">
         <v>3.2376680362072698</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="35">
         <v>8.5362936540571095</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="36">
         <v>8.1279465080700692</v>
       </c>
-      <c r="K44" s="24">
+      <c r="K44" s="36">
         <v>8.6678882087787503</v>
       </c>
-      <c r="L44" s="24">
+      <c r="L44" s="36">
         <v>8.7353289210997307</v>
       </c>
-      <c r="M44" s="24">
+      <c r="M44" s="36">
         <v>51.775209714732704</v>
       </c>
-      <c r="N44" s="25">
+      <c r="N44" s="37">
         <v>2.6155792356969898</v>
       </c>
-      <c r="O44" s="26">
+      <c r="O44" s="38">
         <v>1906.2171659999999</v>
       </c>
-      <c r="P44" s="27">
+      <c r="P44" s="39">
         <v>16360.524606000001</v>
       </c>
-      <c r="Q44" s="24">
+      <c r="Q44" s="39">
         <v>10.435452527839001</v>
       </c>
-      <c r="R44" s="25">
-        <v>50.181713982310903</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
+      <c r="R44" s="37">
+        <v>50.285505297433403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="42">
         <v>5.7265280522367901</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="43">
         <v>3.4191330637095101</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="60">
         <v>7.0693544443471596</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="43">
         <v>2.8319495450316099</v>
       </c>
-      <c r="G45" s="31">
+      <c r="G45" s="43">
         <v>54.689228273946902</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="45">
         <v>4.9120243885621502</v>
       </c>
-      <c r="I45" s="31">
+      <c r="I45" s="42">
         <v>3.5040352732334199</v>
       </c>
-      <c r="J45" s="31">
+      <c r="J45" s="43">
         <v>3.0354396128169099</v>
       </c>
-      <c r="K45" s="31">
+      <c r="K45" s="60">
         <v>4.21727813131153</v>
       </c>
-      <c r="L45" s="31">
+      <c r="L45" s="43">
         <v>14.074296536473501</v>
       </c>
-      <c r="M45" s="31">
+      <c r="M45" s="43">
         <v>37.139126614952502</v>
       </c>
-      <c r="N45" s="32">
+      <c r="N45" s="45">
         <v>5.2871740882331899</v>
       </c>
-      <c r="O45" s="33">
+      <c r="O45" s="46">
         <v>7298.8879559999996</v>
       </c>
-      <c r="P45" s="34">
+      <c r="P45" s="47">
         <v>150737.17074100001</v>
       </c>
-      <c r="Q45" s="31">
+      <c r="Q45" s="47">
         <v>4.6184953080828501</v>
       </c>
-      <c r="R45" s="32">
-        <v>25.276036379776698</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="R45" s="45">
+        <v>24.475710364644598</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="49">
         <v>11.5074891134936</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="50">
         <v>6.8446528410622003</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="30">
         <v>12.862354715909101</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="50">
         <v>3.9904434404956501</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="50">
         <v>3.8422135468532899</v>
       </c>
-      <c r="H46" s="25">
+      <c r="H46" s="51">
         <v>0.29735640621456</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="49">
         <v>12.767236413309099</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="50">
         <v>9.0943706344232407</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K46" s="30">
         <v>13.591130594158701</v>
       </c>
-      <c r="L46" s="24">
+      <c r="L46" s="50">
         <v>24.426609324913201</v>
       </c>
-      <c r="M46" s="24">
+      <c r="M46" s="50">
         <v>15.270142747663799</v>
       </c>
-      <c r="N46" s="25">
+      <c r="N46" s="51">
         <v>6.1070235631250602</v>
       </c>
-      <c r="O46" s="26">
+      <c r="O46" s="52">
         <v>497.74786</v>
       </c>
-      <c r="P46" s="27">
+      <c r="P46" s="53">
         <v>2229.879809</v>
       </c>
-      <c r="Q46" s="24">
+      <c r="Q46" s="53">
         <v>18.248379925786701</v>
       </c>
-      <c r="R46" s="25">
-        <v>21.744764005738201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="R46" s="51">
+        <v>23.810860690307699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="29">
         <v>7.9324666608279299</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="30">
         <v>7.8234249743878204</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="30">
         <v>8.5627860064694392</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="30">
         <v>0.98552149558557001</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="30">
         <v>3.11302949249689</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H47" s="31">
         <v>0.57176384443963002</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="29">
         <v>31.807066890784601</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="30">
         <v>28.830418045688901</v>
       </c>
-      <c r="K47" s="24">
+      <c r="K47" s="30">
         <v>33.616902489518097</v>
       </c>
-      <c r="L47" s="24">
+      <c r="L47" s="30">
         <v>11.749555568981499</v>
       </c>
-      <c r="M47" s="24">
+      <c r="M47" s="30">
         <v>20.998086441086901</v>
       </c>
-      <c r="N47" s="25">
+      <c r="N47" s="31">
         <v>4.04421572773935</v>
       </c>
-      <c r="O47" s="26">
+      <c r="O47" s="32">
         <v>839.02568100000099</v>
       </c>
-      <c r="P47" s="27">
+      <c r="P47" s="33">
         <v>1403.191808</v>
       </c>
-      <c r="Q47" s="24">
+      <c r="Q47" s="33">
         <v>37.419460204736701</v>
       </c>
-      <c r="R47" s="25">
-        <v>29.204911018794501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="R47" s="31">
+        <v>28.9660109866246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="55">
         <v>4.1566389866301101</v>
       </c>
-      <c r="D48" s="37">
+      <c r="D48" s="18">
         <v>4.1566389866301101</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="18">
         <v>5.5892045035439297</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="18">
         <v>1.183611034567E-2</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="18">
         <v>80.367408494656502</v>
       </c>
-      <c r="H48" s="38">
+      <c r="H48" s="56">
         <v>6.0295751021986597</v>
       </c>
-      <c r="I48" s="37">
+      <c r="I48" s="55">
         <v>6.9136789018820703</v>
       </c>
-      <c r="J48" s="37">
+      <c r="J48" s="18">
         <v>6.9136789018820703</v>
       </c>
-      <c r="K48" s="37">
+      <c r="K48" s="18">
         <v>8.8106746894421004</v>
       </c>
-      <c r="L48" s="37">
+      <c r="L48" s="18">
         <v>7.8776400860846403</v>
       </c>
-      <c r="M48" s="37">
+      <c r="M48" s="18">
         <v>67.830413006880093</v>
       </c>
-      <c r="N48" s="38">
+      <c r="N48" s="56">
         <v>2.01434947627176</v>
       </c>
-      <c r="O48" s="39">
+      <c r="O48" s="57">
         <v>6.3217480000000004</v>
       </c>
-      <c r="P48" s="40">
+      <c r="P48" s="58">
         <v>316.11020000000002</v>
       </c>
-      <c r="Q48" s="37">
+      <c r="Q48" s="58">
         <v>1.9606456615769401</v>
       </c>
-      <c r="R48" s="38">
-        <v>34.634549117528302</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="R48" s="56">
+        <v>35.592160010869698</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="29">
         <v>23.544222001353901</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="30">
         <v>22.7901109230442</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="30">
         <v>28.0413437108833</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="30">
         <v>3.9925861624052099</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="30">
         <v>28.821427006747498</v>
       </c>
-      <c r="H49" s="25">
+      <c r="H49" s="31">
         <v>6.1663301197956599</v>
       </c>
-      <c r="I49" s="24">
+      <c r="I49" s="29">
         <v>20.4504816842724</v>
       </c>
-      <c r="J49" s="24">
+      <c r="J49" s="30">
         <v>16.524492769368301</v>
       </c>
-      <c r="K49" s="24">
+      <c r="K49" s="30">
         <v>22.452454806268999</v>
       </c>
-      <c r="L49" s="24">
+      <c r="L49" s="30">
         <v>18.1700460005572</v>
       </c>
-      <c r="M49" s="24">
+      <c r="M49" s="30">
         <v>23.403869830024099</v>
       </c>
-      <c r="N49" s="25">
+      <c r="N49" s="31">
         <v>3.4398944947171901</v>
       </c>
-      <c r="O49" s="26">
+      <c r="O49" s="32">
         <v>2919.608221</v>
       </c>
-      <c r="P49" s="27">
+      <c r="P49" s="33">
         <v>6421.47013100001</v>
       </c>
-      <c r="Q49" s="24">
+      <c r="Q49" s="33">
         <v>31.255580040979801</v>
       </c>
-      <c r="R49" s="25">
-        <v>24.978151164993001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="R49" s="31">
+        <v>24.122120703777899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="29">
         <v>2.8787688320596998</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="30">
         <v>2.3255216387111601</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="30">
         <v>3.3959140820787499</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="30">
         <v>23.029747718601801</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="30">
         <v>19.443574817443199</v>
       </c>
-      <c r="H50" s="25">
+      <c r="H50" s="31">
         <v>0.81579611723550005</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I50" s="29">
         <v>14.286654270989301</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="30">
         <v>12.5917864932187</v>
       </c>
-      <c r="K50" s="24">
+      <c r="K50" s="30">
         <v>14.7014817660171</v>
       </c>
-      <c r="L50" s="24">
+      <c r="L50" s="30">
         <v>31.457159567569501</v>
       </c>
-      <c r="M50" s="24">
+      <c r="M50" s="30">
         <v>13.336399393072901</v>
       </c>
-      <c r="N50" s="25">
+      <c r="N50" s="31">
         <v>4.5990325316262499</v>
       </c>
-      <c r="O50" s="26">
+      <c r="O50" s="32">
         <v>120.779824</v>
       </c>
-      <c r="P50" s="27">
+      <c r="P50" s="33">
         <v>611.66875900000002</v>
       </c>
-      <c r="Q50" s="24">
+      <c r="Q50" s="33">
         <v>16.4898706616789</v>
       </c>
-      <c r="R50" s="25">
-        <v>10.9097835591758</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="R50" s="31">
+        <v>12.388138016448201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="23">
         <v>4.0288682966504696</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="24">
         <v>3.84598071629157</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="24">
         <v>4.7838292005132397</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="24">
         <v>10.107061180477199</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="24">
         <v>10.941026111657701</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="25">
         <v>14.1632976458363</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I51" s="23">
         <v>7.3476986345645203</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="24">
         <v>5.3265580282057199</v>
       </c>
-      <c r="K51" s="18">
+      <c r="K51" s="24">
         <v>9.7903705551825198</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L51" s="24">
         <v>40.691015285608202</v>
       </c>
-      <c r="M51" s="18">
+      <c r="M51" s="24">
         <v>18.699130214932701</v>
       </c>
-      <c r="N51" s="19">
+      <c r="N51" s="25">
         <v>4.8285847506939303</v>
       </c>
-      <c r="O51" s="20">
+      <c r="O51" s="26">
         <v>801.136526</v>
       </c>
-      <c r="P51" s="21">
+      <c r="P51" s="27">
         <v>8462.8222719999994</v>
       </c>
-      <c r="Q51" s="18">
+      <c r="Q51" s="27">
         <v>8.6478852450526702</v>
       </c>
-      <c r="R51" s="19">
-        <v>35.635431178133402</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="R51" s="25">
+        <v>35.635431177342703</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="29">
         <v>0.39827796670722998</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="30">
         <v>0.15747963123570999</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="30">
         <v>0.42659695122968</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="30">
         <v>36.987568601381099</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="30">
         <v>5.1729591468401104</v>
       </c>
-      <c r="H52" s="25">
+      <c r="H52" s="31">
         <v>6.5611104581489998E-2</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="29">
         <v>8.7190355750299506</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="30">
         <v>5.1673704170437604</v>
       </c>
-      <c r="K52" s="24">
+      <c r="K52" s="30">
         <v>9.7654349010046104</v>
       </c>
-      <c r="L52" s="24">
+      <c r="L52" s="30">
         <v>37.3942421000934</v>
       </c>
-      <c r="M52" s="24">
+      <c r="M52" s="30">
         <v>26.688628824409999</v>
       </c>
-      <c r="N52" s="25">
+      <c r="N52" s="31">
         <v>1.74434872875689</v>
       </c>
-      <c r="O52" s="26">
+      <c r="O52" s="32">
         <v>287.20419600000002</v>
       </c>
-      <c r="P52" s="27">
+      <c r="P52" s="33">
         <v>2076.709797</v>
       </c>
-      <c r="Q52" s="24">
+      <c r="Q52" s="33">
         <v>12.149519688553299</v>
       </c>
-      <c r="R52" s="25">
-        <v>41.119612001511101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="R52" s="31">
+        <v>42.310542818440403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A53" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="29">
         <v>4.7959633708276499</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="30">
         <v>4.7803302502944502</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="30">
         <v>4.8514962323558599</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="30">
         <v>9.8757920859000002E-4</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G53" s="30">
         <v>1.9299119703891201</v>
       </c>
-      <c r="H53" s="25">
+      <c r="H53" s="31">
         <v>7.2280464518500002E-3</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="29">
         <v>26.207931089675601</v>
       </c>
-      <c r="J53" s="24">
+      <c r="J53" s="30">
         <v>23.4462614482328</v>
       </c>
-      <c r="K53" s="24">
+      <c r="K53" s="30">
         <v>26.388690484130102</v>
       </c>
-      <c r="L53" s="24">
+      <c r="L53" s="30">
         <v>14.0033057380224</v>
       </c>
-      <c r="M53" s="24">
+      <c r="M53" s="30">
         <v>49.239727327465999</v>
       </c>
-      <c r="N53" s="25">
+      <c r="N53" s="31">
         <v>0.57774353062864003</v>
       </c>
-      <c r="O53" s="26">
+      <c r="O53" s="32">
         <v>53.297725999999997</v>
       </c>
-      <c r="P53" s="27">
+      <c r="P53" s="33">
         <v>87.435132000000095</v>
       </c>
-      <c r="Q53" s="24">
+      <c r="Q53" s="33">
         <v>37.871558040837897</v>
       </c>
-      <c r="R53" s="25">
-        <v>15.386188486864899</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="R53" s="31">
+        <v>15.386188515194901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A54" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="29">
         <v>1.3936663038981301</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="30">
         <v>1.3936663038981301</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="30">
         <v>6.3360232716859404</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="30">
         <v>0.67818158157551001</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="30">
         <v>35.205317867382398</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H54" s="31">
         <v>4.5659471030196297</v>
       </c>
-      <c r="I54" s="24">
+      <c r="I54" s="29">
         <v>0.30833466747507998</v>
       </c>
-      <c r="J54" s="24">
+      <c r="J54" s="30">
         <v>0.30833466747507998</v>
       </c>
-      <c r="K54" s="24">
+      <c r="K54" s="30">
         <v>0.82580375695803998</v>
       </c>
-      <c r="L54" s="24">
+      <c r="L54" s="30">
         <v>42.019393070041097</v>
       </c>
-      <c r="M54" s="24">
+      <c r="M54" s="30">
         <v>10.7452183136692</v>
       </c>
-      <c r="N54" s="25">
+      <c r="N54" s="31">
         <v>1.38161966542464</v>
       </c>
-      <c r="O54" s="26">
+      <c r="O54" s="32">
         <v>53.9876</v>
       </c>
-      <c r="P54" s="27">
+      <c r="P54" s="33">
         <v>1292.7988949999999</v>
       </c>
-      <c r="Q54" s="24">
+      <c r="Q54" s="33">
         <v>4.0086235049453798</v>
       </c>
-      <c r="R54" s="25">
-        <v>31.425242044428401</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="R54" s="31">
+        <v>32.045142879483898</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A55" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="29">
         <v>0.84224639133117996</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="30">
         <v>0.42941918718653999</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="30">
         <v>0.95078829588272995</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="30">
         <v>1.0347566871679099</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="30">
         <v>0.55743320735834001</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H55" s="31">
         <v>5.6320797563840001E-2</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="29">
         <v>53.943819367684398</v>
       </c>
-      <c r="J55" s="24">
+      <c r="J55" s="30">
         <v>51.1141133036596</v>
       </c>
-      <c r="K55" s="24">
+      <c r="K55" s="30">
         <v>55.477342383664002</v>
       </c>
-      <c r="L55" s="24">
+      <c r="L55" s="30">
         <v>9.5583774433359103</v>
       </c>
-      <c r="M55" s="24">
+      <c r="M55" s="30">
         <v>21.6087652122179</v>
       </c>
-      <c r="N55" s="25">
+      <c r="N55" s="31">
         <v>1.35827420266758</v>
       </c>
-      <c r="O55" s="26">
+      <c r="O55" s="32">
         <v>950.38090299999999</v>
       </c>
-      <c r="P55" s="27">
+      <c r="P55" s="33">
         <v>1238.0414430000001</v>
       </c>
-      <c r="Q55" s="24">
+      <c r="Q55" s="33">
         <v>43.427673124299197</v>
       </c>
-      <c r="R55" s="25">
-        <v>28.6019544948042</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="R55" s="31">
+        <v>31.298871043211602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A56" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="29">
         <v>7.7956269932658797</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="30">
         <v>7.5182448349009201</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="30">
         <v>8.7962874490989496</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="30">
         <v>9.0513968967054392</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="30">
         <v>9.4592056301100502</v>
       </c>
-      <c r="H56" s="25">
+      <c r="H56" s="31">
         <v>0.26637534530783002</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="29">
         <v>18.131882894524999</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J56" s="30">
         <v>16.770627840012299</v>
       </c>
-      <c r="K56" s="24">
+      <c r="K56" s="30">
         <v>19.982646975856401</v>
       </c>
-      <c r="L56" s="24">
+      <c r="L56" s="30">
         <v>22.1470013048901</v>
       </c>
-      <c r="M56" s="24">
+      <c r="M56" s="30">
         <v>26.9935343021391</v>
       </c>
-      <c r="N56" s="25">
+      <c r="N56" s="31">
         <v>4.0951758349343503</v>
       </c>
-      <c r="O56" s="26">
+      <c r="O56" s="32">
         <v>444.32121100000001</v>
       </c>
-      <c r="P56" s="27">
+      <c r="P56" s="33">
         <v>1044.0152849999999</v>
       </c>
-      <c r="Q56" s="24">
+      <c r="Q56" s="33">
         <v>29.853545363843601</v>
       </c>
-      <c r="R56" s="25">
-        <v>11.8621777106518</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="R56" s="31">
+        <v>11.815640404023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A57" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="29">
         <v>5.69045372023478</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="30">
         <v>5.5951134857047196</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="30">
         <v>9.9377644342699494</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="30">
         <v>2.10295479715358</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="30">
         <v>38.465878121383</v>
       </c>
-      <c r="H57" s="25">
+      <c r="H57" s="31">
         <v>6.8308714533315804</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="29">
         <v>1.2550244881986099</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="30">
         <v>0.62937026406927998</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="30">
         <v>2.5469840596708901</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="30">
         <v>31.787699634767701</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="30">
         <v>30.4840172431906</v>
       </c>
-      <c r="N57" s="25">
+      <c r="N57" s="31">
         <v>4.7844947443435402</v>
       </c>
-      <c r="O57" s="26">
+      <c r="O57" s="32">
         <v>1108.3551399999999</v>
       </c>
-      <c r="P57" s="27">
+      <c r="P57" s="33">
         <v>26226.428516</v>
       </c>
-      <c r="Q57" s="24">
+      <c r="Q57" s="33">
         <v>4.0547426822480599</v>
       </c>
-      <c r="R57" s="25">
-        <v>14.4731112988897</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="R57" s="31">
+        <v>14.473111298437599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="29">
         <v>35.947469908680802</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="30">
         <v>33.0899024760838</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="30">
         <v>37.433690066704699</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="30">
         <v>3.8518452799681899</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="30">
         <v>10.333466674381199</v>
       </c>
-      <c r="H58" s="25">
+      <c r="H58" s="31">
         <v>8.2815361453381993</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I58" s="29">
         <v>8.0747035435528201</v>
       </c>
-      <c r="J58" s="24">
+      <c r="J58" s="30">
         <v>5.2463601236145703</v>
       </c>
-      <c r="K58" s="24">
+      <c r="K58" s="30">
         <v>10.059860548141</v>
       </c>
-      <c r="L58" s="24">
+      <c r="L58" s="30">
         <v>22.0956798069308</v>
       </c>
-      <c r="M58" s="24">
+      <c r="M58" s="30">
         <v>27.425567876955899</v>
       </c>
-      <c r="N58" s="25">
+      <c r="N58" s="31">
         <v>2.2896640720116901</v>
       </c>
-      <c r="O58" s="26">
+      <c r="O58" s="32">
         <v>1147.2377570000001</v>
       </c>
-      <c r="P58" s="27">
+      <c r="P58" s="33">
         <v>6393.6642430000102</v>
       </c>
-      <c r="Q58" s="24">
+      <c r="Q58" s="33">
         <v>15.213534892775399</v>
       </c>
-      <c r="R58" s="25">
-        <v>26.7927265090423</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="R58" s="31">
+        <v>26.958167664791699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="29">
         <v>1.70493921238108</v>
       </c>
-      <c r="D59" s="24">
+      <c r="D59" s="30">
         <v>1.6634221842972601</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="30">
         <v>2.2464913983254302</v>
       </c>
-      <c r="F59" s="24">
+      <c r="F59" s="30">
         <v>54.530626981255402</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="30">
         <v>24.901693266502001</v>
       </c>
-      <c r="H59" s="25">
+      <c r="H59" s="31">
         <v>1.5415203114653699</v>
       </c>
-      <c r="I59" s="24">
+      <c r="I59" s="29">
         <v>3.4541599486043801</v>
       </c>
-      <c r="J59" s="24">
+      <c r="J59" s="30">
         <v>1.3196678731621501</v>
       </c>
-      <c r="K59" s="24">
+      <c r="K59" s="30">
         <v>7.5760083936349796</v>
       </c>
-      <c r="L59" s="24">
+      <c r="L59" s="30">
         <v>33.391922081516697</v>
       </c>
-      <c r="M59" s="24">
+      <c r="M59" s="30">
         <v>15.0680153827295</v>
       </c>
-      <c r="N59" s="25">
+      <c r="N59" s="31">
         <v>5.8072007987785099</v>
       </c>
-      <c r="O59" s="26">
+      <c r="O59" s="32">
         <v>62.423698999999999</v>
       </c>
-      <c r="P59" s="27">
+      <c r="P59" s="33">
         <v>658.57509300000004</v>
       </c>
-      <c r="Q59" s="24">
+      <c r="Q59" s="33">
         <v>8.6579477930664908</v>
       </c>
-      <c r="R59" s="25">
-        <v>31.642449028967899</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+      <c r="R59" s="31">
+        <v>28.727712760121701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="62">
         <v>28.800693524882099</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="63">
         <v>27.613032903847699</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="63">
         <v>40.445460807353797</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="63">
         <v>1.90349655995164</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="63">
         <v>7.8458275379713696</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H60" s="64">
         <v>1.8683485047700801</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="62">
         <v>7.6475563925240397</v>
       </c>
-      <c r="J60" s="18">
+      <c r="J60" s="63">
         <v>6.90634512213893</v>
       </c>
-      <c r="K60" s="18">
+      <c r="K60" s="63">
         <v>8.3355267746934505</v>
       </c>
-      <c r="L60" s="18">
+      <c r="L60" s="63">
         <v>16.078063944151801</v>
       </c>
-      <c r="M60" s="18">
+      <c r="M60" s="63">
         <v>11.0510700779373</v>
       </c>
-      <c r="N60" s="19">
+      <c r="N60" s="64">
         <v>2.25380573898157</v>
       </c>
-      <c r="O60" s="20">
+      <c r="O60" s="65">
         <v>1095.431979</v>
       </c>
-      <c r="P60" s="21">
+      <c r="P60" s="66">
         <v>3044.8633479999999</v>
       </c>
-      <c r="Q60" s="18">
+      <c r="Q60" s="66">
         <v>26.457822268290599</v>
       </c>
-      <c r="R60" s="19">
-        <v>29.157900432635699</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29" t="s">
+      <c r="R60" s="64">
+        <v>30.770450061396701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="40"/>
+      <c r="B61" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="42">
         <v>8.9547040650217902</v>
       </c>
-      <c r="D61" s="31">
+      <c r="D61" s="43">
         <v>8.5548729531190695</v>
       </c>
-      <c r="E61" s="31">
+      <c r="E61" s="60">
         <v>12.074903966868201</v>
       </c>
-      <c r="F61" s="31">
+      <c r="F61" s="43">
         <v>6.2312112966709803</v>
       </c>
-      <c r="G61" s="31">
+      <c r="G61" s="43">
         <v>24.593151775299901</v>
       </c>
-      <c r="H61" s="32">
+      <c r="H61" s="45">
         <v>6.2097698675150701</v>
       </c>
-      <c r="I61" s="31">
+      <c r="I61" s="42">
         <v>8.5069623441136493</v>
       </c>
-      <c r="J61" s="31">
+      <c r="J61" s="43">
         <v>6.9122616880315002</v>
       </c>
-      <c r="K61" s="31">
+      <c r="K61" s="60">
         <v>9.9430671843001797</v>
       </c>
-      <c r="L61" s="31">
+      <c r="L61" s="43">
         <v>28.337379633521699</v>
       </c>
-      <c r="M61" s="31">
+      <c r="M61" s="43">
         <v>23.332921187828902</v>
       </c>
-      <c r="N61" s="32">
+      <c r="N61" s="45">
         <v>3.66366817092567</v>
       </c>
-      <c r="O61" s="33">
+      <c r="O61" s="46">
         <v>10387.260071000001</v>
       </c>
-      <c r="P61" s="34">
+      <c r="P61" s="47">
         <v>61507.674730999999</v>
       </c>
-      <c r="Q61" s="31">
+      <c r="Q61" s="47">
         <v>14.447832937892899</v>
       </c>
-      <c r="R61" s="32">
-        <v>19.9754155820244</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="42"/>
-      <c r="B62" s="43" t="s">
+      <c r="R61" s="45">
+        <v>20.051232902647701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="67"/>
+      <c r="B62" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="44">
+      <c r="C62" s="69">
         <v>10.8905554719812</v>
       </c>
-      <c r="D62" s="45">
+      <c r="D62" s="70">
         <v>8.2118437377259692</v>
       </c>
-      <c r="E62" s="45">
+      <c r="E62" s="70">
         <v>12.919172941305501</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="70">
         <v>13.2894065148325</v>
       </c>
-      <c r="G62" s="45">
+      <c r="G62" s="70">
         <v>30.585960481301498</v>
       </c>
-      <c r="H62" s="46">
+      <c r="H62" s="71">
         <v>5.0041390321131196</v>
       </c>
-      <c r="I62" s="45">
+      <c r="I62" s="69">
         <v>10.4643885919577</v>
       </c>
-      <c r="J62" s="45">
+      <c r="J62" s="70">
         <v>7.8904996305359996</v>
       </c>
-      <c r="K62" s="45">
+      <c r="K62" s="70">
         <v>12.412262553424201</v>
       </c>
-      <c r="L62" s="45">
+      <c r="L62" s="70">
         <v>20.7351728023067</v>
       </c>
-      <c r="M62" s="45">
+      <c r="M62" s="70">
         <v>24.375195407005901</v>
       </c>
-      <c r="N62" s="46">
+      <c r="N62" s="71">
         <v>4.1340001787184999</v>
       </c>
-      <c r="O62" s="47">
+      <c r="O62" s="72">
         <v>61032.727946999999</v>
       </c>
-      <c r="P62" s="48">
+      <c r="P62" s="73">
         <v>332872.56768799998</v>
       </c>
-      <c r="Q62" s="45">
+      <c r="Q62" s="73">
         <v>15.4942643887566</v>
       </c>
-      <c r="R62" s="46">
-        <v>24.822543558080099</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="B63" s="49" t="s">
+      <c r="R62" s="71">
+        <v>24.587225242248401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="67"/>
+      <c r="B63" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="50">
+      <c r="C63" s="75">
         <v>20.233560676530999</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="51">
+      <c r="E63" s="70">
         <v>57.829009857702196</v>
       </c>
-      <c r="F63" s="51">
+      <c r="F63" s="76">
         <v>8.57354448901763</v>
       </c>
-      <c r="G63" s="51">
+      <c r="G63" s="76">
         <v>30.133591843009501</v>
       </c>
-      <c r="H63" s="52">
+      <c r="H63" s="77">
         <v>13.399277624471701</v>
       </c>
-      <c r="I63" s="51">
+      <c r="I63" s="75">
         <v>20.659149964816098</v>
       </c>
-      <c r="J63" s="51" t="s">
+      <c r="J63" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="K63" s="51">
+      <c r="K63" s="70">
         <v>57.272424693451001</v>
       </c>
-      <c r="L63" s="51">
+      <c r="L63" s="76">
         <v>14.674673602073399</v>
       </c>
-      <c r="M63" s="51">
+      <c r="M63" s="76">
         <v>28.866527452461899</v>
       </c>
-      <c r="N63" s="52">
+      <c r="N63" s="77">
         <v>8.4834911381081906</v>
       </c>
-      <c r="O63" s="53">
+      <c r="O63" s="78">
         <v>7610638.4314360004</v>
       </c>
-      <c r="P63" s="54">
+      <c r="P63" s="79">
         <v>5379565.7484900001</v>
       </c>
-      <c r="Q63" s="51">
+      <c r="Q63" s="79">
         <v>58.587519688080498</v>
       </c>
-      <c r="R63" s="52">
-        <v>31.630167074629998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="B64" s="56" t="s">
+      <c r="R63" s="77">
+        <v>31.631298662627898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A64" s="80"/>
+      <c r="B64" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="44">
+      <c r="C64" s="82">
         <v>8.5765657026861302</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="45">
+      <c r="E64" s="76">
         <v>45.6791216018581</v>
       </c>
-      <c r="F64" s="45">
+      <c r="F64" s="83">
         <v>13.197922003804599</v>
       </c>
-      <c r="G64" s="45">
+      <c r="G64" s="83">
         <v>10.2468886736035</v>
       </c>
-      <c r="H64" s="46">
+      <c r="H64" s="84">
         <v>39.790008656297204</v>
       </c>
-      <c r="I64" s="45">
+      <c r="I64" s="82">
         <v>8.4740975428926308</v>
       </c>
-      <c r="J64" s="45" t="s">
+      <c r="J64" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="K64" s="45">
+      <c r="K64" s="76">
         <v>37.966322491116401</v>
       </c>
-      <c r="L64" s="45">
+      <c r="L64" s="83">
         <v>19.9954019055468</v>
       </c>
-      <c r="M64" s="45">
+      <c r="M64" s="83">
         <v>11.190460707535401</v>
       </c>
-      <c r="N64" s="46">
+      <c r="N64" s="84">
         <v>35.624478895809197</v>
       </c>
-      <c r="O64" s="47">
+      <c r="O64" s="85">
         <v>327004.72761100001</v>
       </c>
-      <c r="P64" s="48">
+      <c r="P64" s="86">
         <v>488485.50877900003</v>
       </c>
-      <c r="Q64" s="45">
+      <c r="Q64" s="86">
         <v>40.099159133845703</v>
       </c>
-      <c r="R64" s="46">
-        <v>28.498230682059901</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="43" t="s">
+      <c r="R64" s="84">
+        <v>28.510709152810101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A65" s="80"/>
+      <c r="B65" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="57">
+      <c r="C65" s="87">
         <v>5.10050078377727</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="58">
+      <c r="E65" s="88">
         <v>49.058582713787203</v>
       </c>
-      <c r="F65" s="58">
+      <c r="F65" s="88">
         <v>7.2975057285389298</v>
       </c>
-      <c r="G65" s="58">
+      <c r="G65" s="88">
         <v>15.1210681761478</v>
       </c>
-      <c r="H65" s="59">
+      <c r="H65" s="89">
         <v>15.4379870890969</v>
       </c>
-      <c r="I65" s="58">
+      <c r="I65" s="87">
         <v>6.7574765136928301</v>
       </c>
-      <c r="J65" s="58" t="s">
+      <c r="J65" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K65" s="58">
+      <c r="K65" s="88">
         <v>63.028883657151802</v>
       </c>
-      <c r="L65" s="58">
+      <c r="L65" s="88">
         <v>16.862039383684799</v>
       </c>
-      <c r="M65" s="58">
+      <c r="M65" s="88">
         <v>8.4550411241450494</v>
       </c>
-      <c r="N65" s="59">
+      <c r="N65" s="89">
         <v>5.80902625923542</v>
       </c>
-      <c r="O65" s="60">
+      <c r="O65" s="90">
         <v>2138426.0691510001</v>
       </c>
-      <c r="P65" s="61">
+      <c r="P65" s="91">
         <v>1355385.9720749999</v>
       </c>
-      <c r="Q65" s="58">
+      <c r="Q65" s="91">
         <v>61.206099352746399</v>
       </c>
-      <c r="R65" s="59">
-        <v>25.8515431948159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="55"/>
-      <c r="B66" s="62" t="s">
+      <c r="R65" s="89">
+        <v>25.907680794959202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="80"/>
+      <c r="B66" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="63">
+      <c r="C66" s="93">
         <v>19.930740449048699</v>
       </c>
-      <c r="D66" s="64">
+      <c r="D66" s="94">
         <v>0.26615765851183998</v>
       </c>
-      <c r="E66" s="64">
+      <c r="E66" s="94">
         <v>56.3734174938457</v>
       </c>
-      <c r="F66" s="64">
+      <c r="F66" s="94">
         <v>8.7263923554339602</v>
       </c>
-      <c r="G66" s="64">
+      <c r="G66" s="94">
         <v>30.148253760770899</v>
       </c>
-      <c r="H66" s="65">
+      <c r="H66" s="95">
         <v>13.127179116269501</v>
       </c>
-      <c r="I66" s="64">
+      <c r="I66" s="93">
         <v>20.308744262183399</v>
       </c>
-      <c r="J66" s="64">
+      <c r="J66" s="94">
         <v>0.27120556980593002</v>
       </c>
-      <c r="K66" s="64">
+      <c r="K66" s="94">
         <v>55.730529198305298</v>
       </c>
-      <c r="L66" s="64">
+      <c r="L66" s="94">
         <v>14.8829799471554</v>
       </c>
-      <c r="M66" s="64">
+      <c r="M66" s="94">
         <v>28.712155191691298</v>
       </c>
-      <c r="N66" s="65">
+      <c r="N66" s="95">
         <v>8.3339941190040996</v>
       </c>
-      <c r="O66" s="66">
+      <c r="O66" s="96">
         <v>7671671.1593830101</v>
       </c>
-      <c r="P66" s="67">
+      <c r="P66" s="97">
         <v>5712438.3161779903</v>
       </c>
-      <c r="Q66" s="64">
+      <c r="Q66" s="97">
         <v>57.319249916412097</v>
       </c>
-      <c r="R66" s="65">
-        <v>31.285203530243301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
-      <c r="B67" s="68" t="s">
+      <c r="R66" s="95">
+        <v>31.271925074722201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A67" s="80"/>
+      <c r="B67" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="69">
+      <c r="C67" s="87">
         <v>12.6048269207283</v>
       </c>
-      <c r="D67" s="70">
+      <c r="D67" s="88">
         <v>6.7489896066455302</v>
       </c>
-      <c r="E67" s="70">
+      <c r="E67" s="88">
         <v>13.882524034947799</v>
       </c>
-      <c r="F67" s="70">
+      <c r="F67" s="88">
         <v>12.515116379738901</v>
       </c>
-      <c r="G67" s="70">
+      <c r="G67" s="88">
         <v>32.6426210322294</v>
       </c>
-      <c r="H67" s="71">
+      <c r="H67" s="89">
         <v>4.5363324818629804</v>
       </c>
-      <c r="I67" s="70">
+      <c r="I67" s="87">
         <v>11.4286561367721</v>
       </c>
-      <c r="J67" s="70">
+      <c r="J67" s="88">
         <v>6.93970203137029</v>
       </c>
-      <c r="K67" s="70">
+      <c r="K67" s="88">
         <v>12.927032937851701</v>
       </c>
-      <c r="L67" s="70">
+      <c r="L67" s="88">
         <v>18.800030816033001</v>
       </c>
-      <c r="M67" s="70">
+      <c r="M67" s="88">
         <v>21.112852298123801</v>
       </c>
-      <c r="N67" s="71">
+      <c r="N67" s="89">
         <v>4.1229395022678403</v>
       </c>
-      <c r="O67" s="72">
+      <c r="O67" s="90">
         <v>21796.950149</v>
       </c>
-      <c r="P67" s="73">
+      <c r="P67" s="91">
         <v>128480.16289199999</v>
       </c>
-      <c r="Q67" s="70">
+      <c r="Q67" s="91">
         <v>14.504504184248701</v>
       </c>
-      <c r="R67" s="71">
-        <v>18.679453875550902</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="B68" s="43" t="s">
+      <c r="R67" s="89">
+        <v>18.735784196534699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A68" s="80"/>
+      <c r="B68" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="57">
+      <c r="C68" s="87">
         <v>7.8025771915396698</v>
       </c>
-      <c r="D68" s="58">
+      <c r="D68" s="88">
         <v>5.87261198194523</v>
       </c>
-      <c r="E68" s="58">
+      <c r="E68" s="88">
         <v>10.017289587037</v>
       </c>
-      <c r="F68" s="58">
+      <c r="F68" s="88">
         <v>5.2497191548394504</v>
       </c>
-      <c r="G68" s="58">
+      <c r="G68" s="88">
         <v>37.433258283107399</v>
       </c>
-      <c r="H68" s="59">
+      <c r="H68" s="89">
         <v>5.2734033184331999</v>
       </c>
-      <c r="I68" s="58">
+      <c r="I68" s="87">
         <v>6.4795584344385899</v>
       </c>
-      <c r="J68" s="58">
+      <c r="J68" s="88">
         <v>4.9005993070330902</v>
       </c>
-      <c r="K68" s="58">
+      <c r="K68" s="88">
         <v>7.3766272549442302</v>
       </c>
-      <c r="L68" s="58">
+      <c r="L68" s="88">
         <v>19.858378942467599</v>
       </c>
-      <c r="M68" s="58">
+      <c r="M68" s="88">
         <v>29.7309776168767</v>
       </c>
-      <c r="N68" s="59">
+      <c r="N68" s="89">
         <v>4.6708911178359003</v>
       </c>
-      <c r="O68" s="60">
+      <c r="O68" s="90">
         <v>17941.242856000001</v>
       </c>
-      <c r="P68" s="61">
+      <c r="P68" s="91">
         <v>198642.11492699999</v>
       </c>
-      <c r="Q68" s="58">
+      <c r="Q68" s="91">
         <v>8.2837587521271008</v>
       </c>
-      <c r="R68" s="59">
-        <v>21.513180212686098</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="B69" s="43" t="s">
+      <c r="R68" s="89">
+        <v>21.5648415770669</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A69" s="80"/>
+      <c r="B69" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="57">
+      <c r="C69" s="87">
         <v>20.467993803990598</v>
       </c>
-      <c r="D69" s="58">
+      <c r="D69" s="88">
         <v>7.8410296412592304</v>
       </c>
-      <c r="E69" s="58">
+      <c r="E69" s="88">
         <v>21.327417412919999</v>
       </c>
-      <c r="F69" s="58">
+      <c r="F69" s="88">
         <v>31.595216989901299</v>
       </c>
-      <c r="G69" s="58">
+      <c r="G69" s="88">
         <v>10.067382344371801</v>
       </c>
-      <c r="H69" s="59">
+      <c r="H69" s="89">
         <v>2.47487421053347</v>
       </c>
-      <c r="I69" s="58">
+      <c r="I69" s="87">
         <v>15.3802607930497</v>
       </c>
-      <c r="J69" s="58">
+      <c r="J69" s="88">
         <v>5.0057121102286697</v>
       </c>
-      <c r="K69" s="58">
+      <c r="K69" s="88">
         <v>17.6121290689326</v>
       </c>
-      <c r="L69" s="58">
+      <c r="L69" s="88">
         <v>27.5200938896777</v>
       </c>
-      <c r="M69" s="58">
+      <c r="M69" s="88">
         <v>8.9941778982281804</v>
       </c>
-      <c r="N69" s="59">
+      <c r="N69" s="89">
         <v>2.0781125441988499</v>
       </c>
-      <c r="O69" s="60">
+      <c r="O69" s="90">
         <v>8702.3283360000005</v>
       </c>
-      <c r="P69" s="61">
+      <c r="P69" s="91">
         <v>27720.990682</v>
       </c>
-      <c r="Q69" s="58">
+      <c r="Q69" s="91">
         <v>23.892189318879499</v>
       </c>
-      <c r="R69" s="59">
-        <v>18.823781531237302</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
-      <c r="B70" s="43" t="s">
+      <c r="R69" s="89">
+        <v>18.809653949897001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A70" s="80"/>
+      <c r="B70" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="57">
+      <c r="C70" s="87">
         <v>4.8808378264321197</v>
       </c>
-      <c r="D70" s="58">
+      <c r="D70" s="88">
         <v>1.19877311110213</v>
       </c>
-      <c r="E70" s="58">
+      <c r="E70" s="88">
         <v>6.7783947213109803</v>
       </c>
-      <c r="F70" s="58">
+      <c r="F70" s="88">
         <v>38.715060859301097</v>
       </c>
-      <c r="G70" s="58">
+      <c r="G70" s="88">
         <v>21.629608454073999</v>
       </c>
-      <c r="H70" s="59">
+      <c r="H70" s="89">
         <v>1.8287429181643899</v>
       </c>
-      <c r="I70" s="58">
+      <c r="I70" s="87">
         <v>13.232259383452201</v>
       </c>
-      <c r="J70" s="58">
+      <c r="J70" s="88">
         <v>3.4565423994259201</v>
       </c>
-      <c r="K70" s="58">
+      <c r="K70" s="88">
         <v>17.899703141493799</v>
       </c>
-      <c r="L70" s="58">
+      <c r="L70" s="88">
         <v>27.384007348209899</v>
       </c>
-      <c r="M70" s="58">
+      <c r="M70" s="88">
         <v>21.4203958532222</v>
       </c>
-      <c r="N70" s="59">
+      <c r="N70" s="89">
         <v>3.3173563297563802</v>
       </c>
-      <c r="O70" s="60">
+      <c r="O70" s="90">
         <v>5775.7232489999997</v>
       </c>
-      <c r="P70" s="61">
+      <c r="P70" s="91">
         <v>20599.936619</v>
       </c>
-      <c r="Q70" s="58">
+      <c r="Q70" s="91">
         <v>21.897928915922002</v>
       </c>
-      <c r="R70" s="59">
-        <v>38.576231366083803</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
-      <c r="B71" s="43" t="s">
+      <c r="R70" s="89">
+        <v>37.809898682305302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A71" s="80"/>
+      <c r="B71" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="57">
+      <c r="C71" s="87">
         <v>8.9547040650217902</v>
       </c>
-      <c r="D71" s="58">
+      <c r="D71" s="88">
         <v>8.5548729531190695</v>
       </c>
-      <c r="E71" s="58">
+      <c r="E71" s="88">
         <v>12.074903966868201</v>
       </c>
-      <c r="F71" s="58">
+      <c r="F71" s="88">
         <v>6.2312112966709803</v>
       </c>
-      <c r="G71" s="58">
+      <c r="G71" s="88">
         <v>24.593151775299901</v>
       </c>
-      <c r="H71" s="59">
+      <c r="H71" s="89">
         <v>6.2097698675150701</v>
       </c>
-      <c r="I71" s="58">
+      <c r="I71" s="87">
         <v>8.5069623441136493</v>
       </c>
-      <c r="J71" s="58">
+      <c r="J71" s="88">
         <v>6.9122616880315002</v>
       </c>
-      <c r="K71" s="58">
+      <c r="K71" s="88">
         <v>9.9430671843001797</v>
       </c>
-      <c r="L71" s="58">
+      <c r="L71" s="88">
         <v>28.337379633521699</v>
       </c>
-      <c r="M71" s="58">
+      <c r="M71" s="88">
         <v>23.332921187828902</v>
       </c>
-      <c r="N71" s="59">
+      <c r="N71" s="89">
         <v>3.6636681709256802</v>
       </c>
-      <c r="O71" s="60">
+      <c r="O71" s="90">
         <v>10387.260071000001</v>
       </c>
-      <c r="P71" s="61">
+      <c r="P71" s="91">
         <v>61507.674730999999</v>
       </c>
-      <c r="Q71" s="58">
+      <c r="Q71" s="91">
         <v>14.447832937892899</v>
       </c>
-      <c r="R71" s="59">
-        <v>19.9754155820244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
-      <c r="B72" s="43" t="s">
+      <c r="R71" s="89">
+        <v>20.051232902647701</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A72" s="80"/>
+      <c r="B72" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="57">
+      <c r="C72" s="87">
         <v>20.1495266967524</v>
       </c>
-      <c r="D72" s="58">
+      <c r="D72" s="88">
         <v>14.654111748400201</v>
       </c>
-      <c r="E72" s="58">
+      <c r="E72" s="88">
         <v>21.7762821517614</v>
       </c>
-      <c r="F72" s="58">
+      <c r="F72" s="88">
         <v>7.3912657541770601</v>
       </c>
-      <c r="G72" s="58">
+      <c r="G72" s="88">
         <v>15.586859349323699</v>
       </c>
-      <c r="H72" s="59">
+      <c r="H72" s="89">
         <v>6.5856465532244899</v>
       </c>
-      <c r="I72" s="58">
+      <c r="I72" s="87">
         <v>9.02542903312413</v>
       </c>
-      <c r="J72" s="58">
+      <c r="J72" s="88">
         <v>4.8310144493253899</v>
       </c>
-      <c r="K72" s="58">
+      <c r="K72" s="88">
         <v>10.9461180203597</v>
       </c>
-      <c r="L72" s="58">
+      <c r="L72" s="88">
         <v>25.406857424968599</v>
       </c>
-      <c r="M72" s="58">
+      <c r="M72" s="88">
         <v>8.73814115583213</v>
       </c>
-      <c r="N72" s="59">
+      <c r="N72" s="89">
         <v>3.4566997014024499</v>
       </c>
-      <c r="O72" s="60">
+      <c r="O72" s="90">
         <v>4824.9665830000004</v>
       </c>
-      <c r="P72" s="61">
+      <c r="P72" s="91">
         <v>27944.168762000001</v>
       </c>
-      <c r="Q72" s="58">
+      <c r="Q72" s="91">
         <v>14.724119303734399</v>
       </c>
-      <c r="R72" s="59">
-        <v>13.6566854942887</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
-      <c r="B73" s="43" t="s">
+      <c r="R72" s="89">
+        <v>13.8240850142389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A73" s="80"/>
+      <c r="B73" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="57">
+      <c r="C73" s="87">
         <v>16.1491028356557</v>
       </c>
-      <c r="D73" s="58">
+      <c r="D73" s="88">
         <v>12.0706496723013</v>
       </c>
-      <c r="E73" s="58">
+      <c r="E73" s="88">
         <v>17.7475201287271</v>
       </c>
-      <c r="F73" s="58">
+      <c r="F73" s="88">
         <v>22.9998735893004</v>
       </c>
-      <c r="G73" s="58">
+      <c r="G73" s="88">
         <v>17.710209986284902</v>
       </c>
-      <c r="H73" s="59">
+      <c r="H73" s="89">
         <v>4.7972337685181996</v>
       </c>
-      <c r="I73" s="58">
+      <c r="I73" s="87">
         <v>19.604102355008301</v>
       </c>
-      <c r="J73" s="58">
+      <c r="J73" s="88">
         <v>14.6839628508472</v>
       </c>
-      <c r="K73" s="58">
+      <c r="K73" s="88">
         <v>22.5393077448437</v>
       </c>
-      <c r="L73" s="58">
+      <c r="L73" s="88">
         <v>19.804803585094501</v>
       </c>
-      <c r="M73" s="58">
+      <c r="M73" s="88">
         <v>16.7060431318471</v>
       </c>
-      <c r="N73" s="59">
+      <c r="N73" s="89">
         <v>3.5616570428162002</v>
       </c>
-      <c r="O73" s="60">
+      <c r="O73" s="90">
         <v>35971.975603999999</v>
       </c>
-      <c r="P73" s="61">
+      <c r="P73" s="91">
         <v>83872.820307999995</v>
       </c>
-      <c r="Q73" s="58">
+      <c r="Q73" s="91">
         <v>30.0154673636506</v>
       </c>
-      <c r="R73" s="59">
-        <v>33.852433716693398</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
-      <c r="B74" s="43" t="s">
+      <c r="R73" s="89">
+        <v>33.945571531824797</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A74" s="80"/>
+      <c r="B74" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="57">
+      <c r="C74" s="87">
         <v>4.3921420099578796</v>
       </c>
-      <c r="D74" s="58">
+      <c r="D74" s="88">
         <v>2.7202182144287002</v>
       </c>
-      <c r="E74" s="58">
+      <c r="E74" s="88">
         <v>5.4936947989763203</v>
       </c>
-      <c r="F74" s="58">
+      <c r="F74" s="88">
         <v>3.13714340332087</v>
       </c>
-      <c r="G74" s="58">
+      <c r="G74" s="88">
         <v>61.829072255865803</v>
       </c>
-      <c r="H74" s="59">
+      <c r="H74" s="89">
         <v>4.6240833696383401</v>
       </c>
-      <c r="I74" s="58">
+      <c r="I74" s="87">
         <v>4.6003220989136402</v>
       </c>
-      <c r="J74" s="58">
+      <c r="J74" s="88">
         <v>4.7272526301784099</v>
       </c>
-      <c r="K74" s="58">
+      <c r="K74" s="88">
         <v>5.5873559316061403</v>
       </c>
-      <c r="L74" s="58">
+      <c r="L74" s="88">
         <v>12.025737987667</v>
       </c>
-      <c r="M74" s="58">
+      <c r="M74" s="88">
         <v>45.596055880237898</v>
       </c>
-      <c r="N74" s="59">
+      <c r="N74" s="89">
         <v>4.2847106544005298</v>
       </c>
-      <c r="O74" s="60">
+      <c r="O74" s="90">
         <v>5771.0351300000002</v>
       </c>
-      <c r="P74" s="61">
+      <c r="P74" s="91">
         <v>87843.131596000007</v>
       </c>
-      <c r="Q74" s="58">
+      <c r="Q74" s="91">
         <v>6.16470277077965</v>
       </c>
-      <c r="R74" s="59">
-        <v>40.621778131655702</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="55"/>
-      <c r="B75" s="62" t="s">
+      <c r="R74" s="89">
+        <v>37.645671089897299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="80"/>
+      <c r="B75" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="C75" s="63">
+      <c r="C75" s="75">
         <v>4.6655558427269801</v>
       </c>
-      <c r="D75" s="64">
+      <c r="D75" s="76">
         <v>4.0355877795485098</v>
       </c>
-      <c r="E75" s="64">
+      <c r="E75" s="94">
         <v>5.2069970404910801</v>
       </c>
-      <c r="F75" s="64">
+      <c r="F75" s="76">
         <v>34.002113905492003</v>
       </c>
-      <c r="G75" s="64">
+      <c r="G75" s="76">
         <v>24.258440123497</v>
       </c>
-      <c r="H75" s="65">
+      <c r="H75" s="77">
         <v>2.2546350418151699</v>
       </c>
-      <c r="I75" s="64">
+      <c r="I75" s="75">
         <v>19.160367550176801</v>
       </c>
-      <c r="J75" s="64">
+      <c r="J75" s="76">
         <v>15.824235473822799</v>
       </c>
-      <c r="K75" s="64">
+      <c r="K75" s="94">
         <v>20.399474495336602</v>
       </c>
-      <c r="L75" s="64">
+      <c r="L75" s="76">
         <v>16.633561151911898</v>
       </c>
-      <c r="M75" s="64">
+      <c r="M75" s="76">
         <v>17.057526275345499</v>
       </c>
-      <c r="N75" s="65">
+      <c r="N75" s="77">
         <v>2.45202144830313</v>
       </c>
-      <c r="O75" s="66">
+      <c r="O75" s="78">
         <v>6591.856495</v>
       </c>
-      <c r="P75" s="67">
+      <c r="P75" s="79">
         <v>12342.454556999999</v>
       </c>
-      <c r="Q75" s="64">
+      <c r="Q75" s="79">
         <v>34.814345644246302</v>
       </c>
-      <c r="R75" s="65">
-        <v>41.492538920128702</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
-      <c r="B76" s="68" t="s">
+      <c r="R75" s="77">
+        <v>41.827749207960302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A76" s="80"/>
+      <c r="B76" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="69">
+      <c r="C76" s="99">
         <v>21.209464544092501</v>
       </c>
-      <c r="D76" s="70" t="s">
+      <c r="D76" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="E76" s="70">
+      <c r="E76" s="88">
         <v>62.606286644701001</v>
       </c>
-      <c r="F76" s="70">
+      <c r="F76" s="100">
         <v>14.4854964454984</v>
       </c>
-      <c r="G76" s="70">
+      <c r="G76" s="100">
         <v>9.7991740192578796</v>
       </c>
-      <c r="H76" s="71">
+      <c r="H76" s="101">
         <v>15.3568565841816</v>
       </c>
-      <c r="I76" s="70">
+      <c r="I76" s="99">
         <v>22.611677399041799</v>
       </c>
-      <c r="J76" s="70" t="s">
+      <c r="J76" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="K76" s="70">
+      <c r="K76" s="88">
         <v>78.318220572789201</v>
       </c>
-      <c r="L76" s="70">
+      <c r="L76" s="100">
         <v>28.243856385569</v>
       </c>
-      <c r="M76" s="70">
+      <c r="M76" s="100">
         <v>5.5372441768140899</v>
       </c>
-      <c r="N76" s="71">
+      <c r="N76" s="101">
         <v>5.7512076876890301</v>
       </c>
-      <c r="O76" s="72">
+      <c r="O76" s="102">
         <v>926724.87107500096</v>
       </c>
-      <c r="P76" s="73">
+      <c r="P76" s="103">
         <v>286756.789338</v>
       </c>
-      <c r="Q76" s="70">
+      <c r="Q76" s="103">
         <v>76.369087503110293</v>
       </c>
-      <c r="R76" s="71">
-        <v>56.994975757554002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
-      <c r="B77" s="43" t="s">
+      <c r="R76" s="101">
+        <v>56.879701027167002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A77" s="80"/>
+      <c r="B77" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="57">
+      <c r="C77" s="87">
         <v>16.031759773472</v>
       </c>
-      <c r="D77" s="58" t="s">
+      <c r="D77" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="E77" s="58">
+      <c r="E77" s="88">
         <v>16.031781376013399</v>
       </c>
-      <c r="F77" s="58">
+      <c r="F77" s="88">
         <v>22.514094682819401</v>
       </c>
-      <c r="G77" s="58">
+      <c r="G77" s="88">
         <v>14.013954381576101</v>
       </c>
-      <c r="H77" s="59">
+      <c r="H77" s="89">
         <v>12.8806013494124</v>
       </c>
-      <c r="I77" s="58">
+      <c r="I77" s="87">
         <v>18.108603704712898</v>
       </c>
-      <c r="J77" s="58" t="s">
+      <c r="J77" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K77" s="58">
+      <c r="K77" s="88">
         <v>18.108603740991398</v>
       </c>
-      <c r="L77" s="58">
+      <c r="L77" s="88">
         <v>23.992120209159499</v>
       </c>
-      <c r="M77" s="58">
+      <c r="M77" s="88">
         <v>13.6148735942232</v>
       </c>
-      <c r="N77" s="59">
+      <c r="N77" s="89">
         <v>19.887865358294</v>
       </c>
-      <c r="O77" s="60">
+      <c r="O77" s="90">
         <v>74881.553933999996</v>
       </c>
-      <c r="P77" s="61">
+      <c r="P77" s="91">
         <v>297958.71194200002</v>
       </c>
-      <c r="Q77" s="58">
+      <c r="Q77" s="91">
         <v>20.084084469273598</v>
       </c>
-      <c r="R77" s="59">
-        <v>22.377834632562401</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
-      <c r="B78" s="43" t="s">
+      <c r="R77" s="89">
+        <v>22.237804669913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A78" s="80"/>
+      <c r="B78" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="57">
+      <c r="C78" s="87">
         <v>60.397327263203998</v>
       </c>
-      <c r="D78" s="58" t="s">
+      <c r="D78" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="E78" s="58">
+      <c r="E78" s="88">
         <v>73.356980318224501</v>
       </c>
-      <c r="F78" s="58">
+      <c r="F78" s="88">
         <v>3.6342769728841899</v>
       </c>
-      <c r="G78" s="58">
+      <c r="G78" s="88">
         <v>60.397327263203998</v>
       </c>
-      <c r="H78" s="59">
+      <c r="H78" s="89">
         <v>7.9876302619789703</v>
       </c>
-      <c r="I78" s="58">
+      <c r="I78" s="87">
         <v>56.698254915140097</v>
       </c>
-      <c r="J78" s="58" t="s">
+      <c r="J78" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K78" s="58">
+      <c r="K78" s="88">
         <v>71.113962753155107</v>
       </c>
-      <c r="L78" s="58">
+      <c r="L78" s="88">
         <v>8.6906169443795793</v>
       </c>
-      <c r="M78" s="58">
+      <c r="M78" s="88">
         <v>56.698254915140097</v>
       </c>
-      <c r="N78" s="59">
+      <c r="N78" s="89">
         <v>4.8924937868945602</v>
       </c>
-      <c r="O78" s="60">
+      <c r="O78" s="90">
         <v>2906738.321457</v>
       </c>
-      <c r="P78" s="61">
+      <c r="P78" s="91">
         <v>1154144.4727439999</v>
       </c>
-      <c r="Q78" s="58">
+      <c r="Q78" s="91">
         <v>71.578976019890703</v>
       </c>
-      <c r="R78" s="59">
-        <v>55.864516608549799</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="55"/>
-      <c r="B79" s="62" t="s">
+      <c r="R78" s="89">
+        <v>55.949318143443101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="80"/>
+      <c r="B79" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C79" s="63">
+      <c r="C79" s="93">
         <v>29.587428475539198</v>
       </c>
-      <c r="D79" s="64" t="s">
+      <c r="D79" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="E79" s="64">
+      <c r="E79" s="94">
         <v>61.465046094242901</v>
       </c>
-      <c r="F79" s="64">
+      <c r="F79" s="94">
         <v>7.5341779414679797</v>
       </c>
-      <c r="G79" s="64">
+      <c r="G79" s="94">
         <v>39.363155916521698</v>
       </c>
-      <c r="H79" s="65">
+      <c r="H79" s="95">
         <v>14.1181765446933</v>
       </c>
-      <c r="I79" s="64">
+      <c r="I79" s="93">
         <v>26.3147722519208</v>
       </c>
-      <c r="J79" s="64" t="s">
+      <c r="J79" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="K79" s="64">
+      <c r="K79" s="94">
         <v>56.0617322632067</v>
       </c>
-      <c r="L79" s="64">
+      <c r="L79" s="94">
         <v>13.257410828084801</v>
       </c>
-      <c r="M79" s="64">
+      <c r="M79" s="94">
         <v>36.735371948601298</v>
       </c>
-      <c r="N79" s="65">
+      <c r="N79" s="95">
         <v>9.0811836650211504</v>
       </c>
-      <c r="O79" s="66">
+      <c r="O79" s="96">
         <v>4787624.2229260001</v>
       </c>
-      <c r="P79" s="67">
+      <c r="P79" s="97">
         <v>3383067.3961189999</v>
       </c>
-      <c r="Q79" s="64">
+      <c r="Q79" s="97">
         <v>58.5950914089888</v>
       </c>
-      <c r="R79" s="65">
-        <v>33.448077754562298</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
-      <c r="B80" s="68" t="s">
+      <c r="R79" s="95">
+        <v>33.411882715124399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A80" s="80"/>
+      <c r="B80" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="C80" s="69">
+      <c r="C80" s="87">
         <v>2.0897597419826899</v>
       </c>
-      <c r="D80" s="70">
+      <c r="D80" s="88">
         <v>1.77084131620538</v>
       </c>
-      <c r="E80" s="70">
+      <c r="E80" s="88">
         <v>3.6515984500605998</v>
       </c>
-      <c r="F80" s="70">
+      <c r="F80" s="88">
         <v>19.8682228359433</v>
       </c>
-      <c r="G80" s="70">
+      <c r="G80" s="88">
         <v>44.7192232086487</v>
       </c>
-      <c r="H80" s="71">
+      <c r="H80" s="89">
         <v>3.9091560552733999</v>
       </c>
-      <c r="I80" s="70">
+      <c r="I80" s="87">
         <v>5.0476600191398102</v>
       </c>
-      <c r="J80" s="70">
+      <c r="J80" s="88">
         <v>5.1579952517208998</v>
       </c>
-      <c r="K80" s="70">
+      <c r="K80" s="88">
         <v>7.92863366668717</v>
       </c>
-      <c r="L80" s="70">
+      <c r="L80" s="88">
         <v>18.2917067098522</v>
       </c>
-      <c r="M80" s="70">
+      <c r="M80" s="88">
         <v>36.118255458516302</v>
       </c>
-      <c r="N80" s="71">
+      <c r="N80" s="89">
         <v>3.3034556920606399</v>
       </c>
-      <c r="O80" s="72">
+      <c r="O80" s="90">
         <v>3811.582566</v>
       </c>
-      <c r="P80" s="73">
+      <c r="P80" s="91">
         <v>39790.829892000002</v>
       </c>
-      <c r="Q80" s="70">
+      <c r="Q80" s="91">
         <v>8.7416781575365903</v>
       </c>
-      <c r="R80" s="71">
-        <v>39.7381078898607</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
-      <c r="B81" s="43" t="s">
+      <c r="R80" s="89">
+        <v>36.150171598979902</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A81" s="80"/>
+      <c r="B81" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="C81" s="57">
+      <c r="C81" s="87">
         <v>0.53431925391224</v>
       </c>
-      <c r="D81" s="58" t="s">
+      <c r="D81" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="E81" s="58">
+      <c r="E81" s="88">
         <v>65.823990128217801</v>
       </c>
-      <c r="F81" s="58">
+      <c r="F81" s="88">
         <v>18.506839384915601</v>
       </c>
-      <c r="G81" s="58">
+      <c r="G81" s="88">
         <v>17.931548615291799</v>
       </c>
-      <c r="H81" s="59">
+      <c r="H81" s="89">
         <v>4.27036184990469</v>
       </c>
-      <c r="I81" s="58">
+      <c r="I81" s="87">
         <v>1.0832174913493999</v>
       </c>
-      <c r="J81" s="58" t="s">
+      <c r="J81" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K81" s="58">
+      <c r="K81" s="88">
         <v>53.022395465293698</v>
       </c>
-      <c r="L81" s="58">
+      <c r="L81" s="88">
         <v>22.922170409906201</v>
       </c>
-      <c r="M81" s="58">
+      <c r="M81" s="88">
         <v>15.951069980730701</v>
       </c>
-      <c r="N81" s="59">
+      <c r="N81" s="89">
         <v>5.2526426296268403</v>
       </c>
-      <c r="O81" s="60">
+      <c r="O81" s="90">
         <v>259582.78289999999</v>
       </c>
-      <c r="P81" s="61">
+      <c r="P81" s="91">
         <v>278268.15488799999</v>
       </c>
-      <c r="Q81" s="58">
+      <c r="Q81" s="91">
         <v>48.262959988054803</v>
       </c>
-      <c r="R81" s="59">
-        <v>40.422037371976998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="B82" s="43" t="s">
+      <c r="R81" s="89">
+        <v>40.335633648728397</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A82" s="80"/>
+      <c r="B82" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="C82" s="57">
+      <c r="C82" s="87">
         <v>13.8454088641562</v>
       </c>
-      <c r="D82" s="58">
+      <c r="D82" s="88">
         <v>10.3744002199045</v>
       </c>
-      <c r="E82" s="58">
+      <c r="E82" s="88">
         <v>16.0307465720112</v>
       </c>
-      <c r="F82" s="58">
+      <c r="F82" s="88">
         <v>11.0805792315597</v>
       </c>
-      <c r="G82" s="58">
+      <c r="G82" s="88">
         <v>25.840739640639001</v>
       </c>
-      <c r="H82" s="59">
+      <c r="H82" s="89">
         <v>5.3717778528234099</v>
       </c>
-      <c r="I82" s="58">
+      <c r="I82" s="87">
         <v>11.1440641530088</v>
       </c>
-      <c r="J82" s="58">
+      <c r="J82" s="88">
         <v>8.2333664406002107</v>
       </c>
-      <c r="K82" s="58">
+      <c r="K82" s="88">
         <v>12.9748554428723</v>
       </c>
-      <c r="L82" s="58">
+      <c r="L82" s="88">
         <v>21.041771917431799</v>
       </c>
-      <c r="M82" s="58">
+      <c r="M82" s="88">
         <v>22.901709921870101</v>
       </c>
-      <c r="N82" s="59">
+      <c r="N82" s="89">
         <v>4.2382145181225201</v>
       </c>
-      <c r="O82" s="60">
+      <c r="O82" s="90">
         <v>57221.145381000002</v>
       </c>
-      <c r="P82" s="61">
+      <c r="P82" s="91">
         <v>293081.73779599997</v>
       </c>
-      <c r="Q82" s="58">
+      <c r="Q82" s="91">
         <v>16.334762894911002</v>
       </c>
-      <c r="R82" s="59">
-        <v>22.744950217844099</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="55"/>
-      <c r="B83" s="62" t="s">
+      <c r="R82" s="89">
+        <v>22.8214907392925</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="80"/>
+      <c r="B83" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="63">
+      <c r="C83" s="75">
         <v>22.1515023460409</v>
       </c>
-      <c r="D83" s="64" t="s">
+      <c r="D83" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="E83" s="64">
+      <c r="E83" s="94">
         <v>57.0506090310529</v>
       </c>
-      <c r="F83" s="64">
+      <c r="F83" s="76">
         <v>7.6064270357283696</v>
       </c>
-      <c r="G83" s="64">
+      <c r="G83" s="76">
         <v>31.321597343197499</v>
       </c>
-      <c r="H83" s="65">
+      <c r="H83" s="77">
         <v>14.288079765928</v>
       </c>
-      <c r="I83" s="64">
+      <c r="I83" s="75">
         <v>21.727637970303199</v>
       </c>
-      <c r="J83" s="64" t="s">
+      <c r="J83" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="K83" s="64">
+      <c r="K83" s="94">
         <v>57.5043985858524</v>
       </c>
-      <c r="L83" s="64">
+      <c r="L83" s="76">
         <v>14.2245110656831</v>
       </c>
-      <c r="M83" s="64">
+      <c r="M83" s="76">
         <v>29.5714752965877</v>
       </c>
-      <c r="N83" s="65">
+      <c r="N83" s="77">
         <v>8.6598363969374699</v>
       </c>
-      <c r="O83" s="66">
+      <c r="O83" s="78">
         <v>7351055.6485360004</v>
       </c>
-      <c r="P83" s="67">
+      <c r="P83" s="79">
         <v>5101297.5936019998</v>
       </c>
-      <c r="Q83" s="64">
+      <c r="Q83" s="79">
         <v>59.033465447000701</v>
       </c>
-      <c r="R83" s="65">
-        <v>30.8397492777457</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="B84" s="68" t="s">
+      <c r="R83" s="77">
+        <v>30.845300600351699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A84" s="80"/>
+      <c r="B84" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="C84" s="69">
+      <c r="C84" s="99">
         <v>11.461290481459301</v>
       </c>
-      <c r="D84" s="70">
+      <c r="D84" s="100">
         <v>5.7558497286925299</v>
       </c>
-      <c r="E84" s="70">
+      <c r="E84" s="88">
         <v>12.6137230150497</v>
       </c>
-      <c r="F84" s="70">
+      <c r="F84" s="100">
         <v>21.8728165878195</v>
       </c>
-      <c r="G84" s="70">
+      <c r="G84" s="100">
         <v>13.4503100591653</v>
       </c>
-      <c r="H84" s="71">
+      <c r="H84" s="101">
         <v>2.3683225667870502</v>
       </c>
-      <c r="I84" s="70">
+      <c r="I84" s="99">
         <v>18.482409557503399</v>
       </c>
-      <c r="J84" s="70">
+      <c r="J84" s="100">
         <v>12.056536288658</v>
       </c>
-      <c r="K84" s="70">
+      <c r="K84" s="88">
         <v>19.6000641808278</v>
       </c>
-      <c r="L84" s="70">
+      <c r="L84" s="100">
         <v>22.453689010132699</v>
       </c>
-      <c r="M84" s="70">
+      <c r="M84" s="100">
         <v>11.5835012044423</v>
       </c>
-      <c r="N84" s="71">
+      <c r="N84" s="101">
         <v>2.6632197011158398</v>
       </c>
-      <c r="O84" s="72">
+      <c r="O84" s="102">
         <v>17187.561096000001</v>
       </c>
-      <c r="P84" s="73">
+      <c r="P84" s="103">
         <v>38860.218255</v>
       </c>
-      <c r="Q84" s="70">
+      <c r="Q84" s="103">
         <v>30.665909149339601</v>
       </c>
-      <c r="R84" s="71">
-        <v>21.257246082890699</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
-      <c r="B85" s="43" t="s">
+      <c r="R84" s="101">
+        <v>21.302383715196601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A85" s="80"/>
+      <c r="B85" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="C85" s="57" t="s">
+      <c r="C85" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="D85" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="E85" s="58">
+      <c r="E85" s="88">
         <v>80.030999835434997</v>
       </c>
-      <c r="F85" s="58">
+      <c r="F85" s="88">
         <v>17.0486454264237</v>
       </c>
-      <c r="G85" s="58">
+      <c r="G85" s="88">
         <v>5.2576820857442303</v>
       </c>
-      <c r="H85" s="59">
+      <c r="H85" s="89">
         <v>1.51249552310596</v>
       </c>
-      <c r="I85" s="58" t="s">
+      <c r="I85" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="J85" s="58" t="s">
+      <c r="J85" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K85" s="58">
+      <c r="K85" s="88">
         <v>61.420907086607798</v>
       </c>
-      <c r="L85" s="58">
+      <c r="L85" s="88">
         <v>20.797740932370498</v>
       </c>
-      <c r="M85" s="58">
+      <c r="M85" s="88">
         <v>6.8699698999003198</v>
       </c>
-      <c r="N85" s="59">
+      <c r="N85" s="89">
         <v>1.7832940711932199</v>
       </c>
-      <c r="O85" s="60">
+      <c r="O85" s="90">
         <v>6670.9252470000001</v>
       </c>
-      <c r="P85" s="61">
+      <c r="P85" s="91">
         <v>5627.7929770000001</v>
       </c>
-      <c r="Q85" s="58">
+      <c r="Q85" s="91">
         <v>54.240817014428401</v>
       </c>
-      <c r="R85" s="59">
-        <v>10.566950248193001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
-      <c r="B86" s="43" t="s">
+      <c r="R85" s="89">
+        <v>11.8942385036412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A86" s="80"/>
+      <c r="B86" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="C86" s="57">
+      <c r="C86" s="87">
         <v>8.8777007618151291</v>
       </c>
-      <c r="D86" s="58">
+      <c r="D86" s="88">
         <v>6.4346053197698501</v>
       </c>
-      <c r="E86" s="58">
+      <c r="E86" s="88">
         <v>10.8529692719852</v>
       </c>
-      <c r="F86" s="58">
+      <c r="F86" s="88">
         <v>10.0721234936528</v>
       </c>
-      <c r="G86" s="58">
+      <c r="G86" s="88">
         <v>36.098786340204299</v>
       </c>
-      <c r="H86" s="59">
+      <c r="H86" s="89">
         <v>4.8664946730946603</v>
       </c>
-      <c r="I86" s="58">
+      <c r="I86" s="87">
         <v>7.0169156787281999</v>
       </c>
-      <c r="J86" s="58">
+      <c r="J86" s="88">
         <v>5.2555739820998904</v>
       </c>
-      <c r="K86" s="58">
+      <c r="K86" s="88">
         <v>8.75764438665143</v>
       </c>
-      <c r="L86" s="58">
+      <c r="L86" s="88">
         <v>21.1972573989563</v>
       </c>
-      <c r="M86" s="58">
+      <c r="M86" s="88">
         <v>28.278843435727499</v>
       </c>
-      <c r="N86" s="59">
+      <c r="N86" s="89">
         <v>4.46422060008108</v>
       </c>
-      <c r="O86" s="60">
+      <c r="O86" s="90">
         <v>26870.570172</v>
       </c>
-      <c r="P86" s="61">
+      <c r="P86" s="91">
         <v>237013.33902499999</v>
       </c>
-      <c r="Q86" s="58">
+      <c r="Q86" s="91">
         <v>10.1827240068435</v>
       </c>
-      <c r="R86" s="59">
-        <v>23.508699749705301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
-      <c r="B87" s="43" t="s">
+      <c r="R86" s="89">
+        <v>23.1849552058789</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A87" s="80"/>
+      <c r="B87" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="C87" s="57">
+      <c r="C87" s="87">
         <v>5.5162344082911003</v>
       </c>
-      <c r="D87" s="58" t="s">
+      <c r="D87" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="E87" s="58">
+      <c r="E87" s="88">
         <v>44.705608968772196</v>
       </c>
-      <c r="F87" s="58">
+      <c r="F87" s="88">
         <v>10.0435324310982</v>
       </c>
-      <c r="G87" s="58">
+      <c r="G87" s="88">
         <v>18.0103734137606</v>
       </c>
-      <c r="H87" s="59">
+      <c r="H87" s="89">
         <v>19.920977554795101</v>
       </c>
-      <c r="I87" s="58">
+      <c r="I87" s="87">
         <v>7.8959638712567903</v>
       </c>
-      <c r="J87" s="58" t="s">
+      <c r="J87" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K87" s="58">
+      <c r="K87" s="88">
         <v>70.889167030882007</v>
       </c>
-      <c r="L87" s="58">
+      <c r="L87" s="88">
         <v>24.8589182981896</v>
       </c>
-      <c r="M87" s="58">
+      <c r="M87" s="88">
         <v>8.1015261998962202</v>
       </c>
-      <c r="N87" s="59">
+      <c r="N87" s="89">
         <v>5.2269346878387699</v>
       </c>
-      <c r="O87" s="60">
+      <c r="O87" s="90">
         <v>856345.05519400002</v>
       </c>
-      <c r="P87" s="61">
+      <c r="P87" s="91">
         <v>394647.04149099998</v>
       </c>
-      <c r="Q87" s="58">
+      <c r="Q87" s="91">
         <v>68.4532746020719</v>
       </c>
-      <c r="R87" s="59">
-        <v>27.650874667300801</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
-      <c r="B88" s="43" t="s">
+      <c r="R87" s="89">
+        <v>27.7955928547224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A88" s="80"/>
+      <c r="B88" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="C88" s="57">
+      <c r="C88" s="87">
         <v>14.5667732114985</v>
       </c>
-      <c r="D88" s="58">
+      <c r="D88" s="88">
         <v>12.728670423464401</v>
       </c>
-      <c r="E88" s="58">
+      <c r="E88" s="88">
         <v>17.076270070295099</v>
       </c>
-      <c r="F88" s="58">
+      <c r="F88" s="88">
         <v>15.930153772767399</v>
       </c>
-      <c r="G88" s="58">
+      <c r="G88" s="88">
         <v>27.136885660457601</v>
       </c>
-      <c r="H88" s="59">
+      <c r="H88" s="89">
         <v>6.4188611760581704</v>
       </c>
-      <c r="I88" s="58">
+      <c r="I88" s="87">
         <v>13.6604186288356</v>
       </c>
-      <c r="J88" s="58">
+      <c r="J88" s="88">
         <v>12.1059540387034</v>
       </c>
-      <c r="K88" s="58">
+      <c r="K88" s="88">
         <v>16.979492534176298</v>
       </c>
-      <c r="L88" s="58">
+      <c r="L88" s="88">
         <v>18.0034888135473</v>
       </c>
-      <c r="M88" s="58">
+      <c r="M88" s="88">
         <v>23.958325329998601</v>
       </c>
-      <c r="N88" s="59">
+      <c r="N88" s="89">
         <v>4.4811103328690898</v>
       </c>
-      <c r="O88" s="60">
+      <c r="O88" s="90">
         <v>16918.310481</v>
       </c>
-      <c r="P88" s="61">
+      <c r="P88" s="91">
         <v>56675.840470000003</v>
       </c>
-      <c r="Q88" s="58">
+      <c r="Q88" s="91">
         <v>22.988661819421601</v>
       </c>
-      <c r="R88" s="59">
-        <v>35.279769860129498</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
-      <c r="B89" s="43" t="s">
+      <c r="R88" s="89">
+        <v>35.323441874854602</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A89" s="80"/>
+      <c r="B89" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="C89" s="57">
+      <c r="C89" s="87">
         <v>5.2953249483820004</v>
       </c>
-      <c r="D89" s="58" t="s">
+      <c r="D89" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="E89" s="58">
+      <c r="E89" s="88">
         <v>51.425292373644503</v>
       </c>
-      <c r="F89" s="58">
+      <c r="F89" s="88">
         <v>8.1827660565500295</v>
       </c>
-      <c r="G89" s="58">
+      <c r="G89" s="88">
         <v>17.7534783969584</v>
       </c>
-      <c r="H89" s="59">
+      <c r="H89" s="89">
         <v>17.560130725979999</v>
       </c>
-      <c r="I89" s="58">
+      <c r="I89" s="87">
         <v>6.0607172506045597</v>
       </c>
-      <c r="J89" s="58" t="s">
+      <c r="J89" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K89" s="58">
+      <c r="K89" s="88">
         <v>53.665279979125003</v>
       </c>
-      <c r="L89" s="58">
+      <c r="L89" s="88">
         <v>15.093224846387701</v>
       </c>
-      <c r="M89" s="58">
+      <c r="M89" s="88">
         <v>13.807201589920201</v>
       </c>
-      <c r="N89" s="59">
+      <c r="N89" s="89">
         <v>13.244048240945901</v>
       </c>
-      <c r="O89" s="60">
+      <c r="O89" s="90">
         <v>1847950.6232799999</v>
       </c>
-      <c r="P89" s="61">
+      <c r="P89" s="91">
         <v>1570462.762876</v>
       </c>
-      <c r="Q89" s="58">
+      <c r="Q89" s="91">
         <v>54.058722995992603</v>
       </c>
-      <c r="R89" s="59">
-        <v>27.375853049105402</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="55"/>
-      <c r="B90" s="62" t="s">
+      <c r="R89" s="89">
+        <v>27.3682020488605</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="80"/>
+      <c r="B90" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="C90" s="63">
+      <c r="C90" s="93">
         <v>29.321540045376899</v>
       </c>
-      <c r="D90" s="64">
+      <c r="D90" s="94">
         <v>6.0883336277999997E-4</v>
       </c>
-      <c r="E90" s="64">
+      <c r="E90" s="94">
         <v>62.3854499044172</v>
       </c>
-      <c r="F90" s="64">
+      <c r="F90" s="94">
         <v>8.6261254891440196</v>
       </c>
-      <c r="G90" s="64">
+      <c r="G90" s="94">
         <v>37.6611468902383</v>
       </c>
-      <c r="H90" s="65">
+      <c r="H90" s="95">
         <v>10.6398199937288</v>
       </c>
-      <c r="I90" s="64">
+      <c r="I90" s="93">
         <v>27.025429967296098</v>
       </c>
-      <c r="J90" s="64">
+      <c r="J90" s="94">
         <v>2.8546506287E-4</v>
       </c>
-      <c r="K90" s="64">
+      <c r="K90" s="94">
         <v>56.868515253368201</v>
       </c>
-      <c r="L90" s="64">
+      <c r="L90" s="94">
         <v>13.3139813591522</v>
       </c>
-      <c r="M90" s="64">
+      <c r="M90" s="94">
         <v>36.352560007287103</v>
       </c>
-      <c r="N90" s="65">
+      <c r="N90" s="95">
         <v>7.2905823481654304</v>
       </c>
-      <c r="O90" s="66">
+      <c r="O90" s="96">
         <v>4898480.1607649997</v>
       </c>
-      <c r="P90" s="67">
+      <c r="P90" s="97">
         <v>3405609.6025660001</v>
       </c>
-      <c r="Q90" s="64">
+      <c r="Q90" s="97">
         <v>58.988766985583403</v>
       </c>
-      <c r="R90" s="65">
-        <v>36.184362173951797</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
-      <c r="B91" s="68" t="s">
+      <c r="R90" s="95">
+        <v>36.147244697029798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A91" s="80"/>
+      <c r="B91" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="C91" s="69">
+      <c r="C91" s="87">
         <v>10.846706425173201</v>
       </c>
-      <c r="D91" s="70">
+      <c r="D91" s="88">
         <v>5.8528341234477299</v>
       </c>
-      <c r="E91" s="70">
+      <c r="E91" s="88">
         <v>12.043036804382499</v>
       </c>
-      <c r="F91" s="70">
+      <c r="F91" s="88">
         <v>25.6909845694993</v>
       </c>
-      <c r="G91" s="70">
+      <c r="G91" s="88">
         <v>14.945455997276699</v>
       </c>
-      <c r="H91" s="71">
+      <c r="H91" s="89">
         <v>2.3705197234845699</v>
       </c>
-      <c r="I91" s="70">
+      <c r="I91" s="87">
         <v>16.596941280001101</v>
       </c>
-      <c r="J91" s="70">
+      <c r="J91" s="88">
         <v>10.781331677033799</v>
       </c>
-      <c r="K91" s="70">
+      <c r="K91" s="88">
         <v>18.5656603881209</v>
       </c>
-      <c r="L91" s="70">
+      <c r="L91" s="88">
         <v>23.571914937610899</v>
       </c>
-      <c r="M91" s="70">
+      <c r="M91" s="88">
         <v>13.789737254354</v>
       </c>
-      <c r="N91" s="71">
+      <c r="N91" s="89">
         <v>2.6255338743914498</v>
       </c>
-      <c r="O91" s="72">
+      <c r="O91" s="90">
         <v>27175.436393</v>
       </c>
-      <c r="P91" s="73">
+      <c r="P91" s="91">
         <v>73121.477805999995</v>
       </c>
-      <c r="Q91" s="70">
+      <c r="Q91" s="91">
         <v>27.094987527812702</v>
       </c>
-      <c r="R91" s="71">
-        <v>25.169108180879501</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
-      <c r="B92" s="43" t="s">
+      <c r="R91" s="89">
+        <v>25.428252989779399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A92" s="80"/>
+      <c r="B92" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="C92" s="57">
+      <c r="C92" s="87">
         <v>9.7441114878564292</v>
       </c>
-      <c r="D92" s="58" t="s">
+      <c r="D92" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="E92" s="58">
+      <c r="E92" s="88">
         <v>34.850042477539503</v>
       </c>
-      <c r="F92" s="58">
+      <c r="F92" s="88">
         <v>11.168184865804999</v>
       </c>
-      <c r="G92" s="58">
+      <c r="G92" s="88">
         <v>31.876991725900599</v>
       </c>
-      <c r="H92" s="59">
+      <c r="H92" s="89">
         <v>19.293229163521801</v>
       </c>
-      <c r="I92" s="58">
+      <c r="I92" s="87">
         <v>20.717076831640899</v>
       </c>
-      <c r="J92" s="58" t="s">
+      <c r="J92" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K92" s="58">
+      <c r="K92" s="88">
         <v>84.971805840716101</v>
       </c>
-      <c r="L92" s="58">
+      <c r="L92" s="88">
         <v>30.8905389173486</v>
       </c>
-      <c r="M92" s="58">
+      <c r="M92" s="88">
         <v>3.3966814709726898</v>
       </c>
-      <c r="N92" s="59">
+      <c r="N92" s="89">
         <v>2.67685165281075</v>
       </c>
-      <c r="O92" s="60">
+      <c r="O92" s="90">
         <v>104392.59516500001</v>
       </c>
-      <c r="P92" s="61">
+      <c r="P92" s="91">
         <v>22408.906643999999</v>
       </c>
-      <c r="Q92" s="58">
+      <c r="Q92" s="91">
         <v>82.3275700016911</v>
       </c>
-      <c r="R92" s="59">
-        <v>17.664998329195299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
-      <c r="B93" s="43" t="s">
+      <c r="R92" s="89">
+        <v>17.543359946331499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A93" s="80"/>
+      <c r="B93" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="C93" s="57">
+      <c r="C93" s="87">
         <v>31.565919159765301</v>
       </c>
-      <c r="D93" s="58">
+      <c r="D93" s="88">
         <v>11.8206036956639</v>
       </c>
-      <c r="E93" s="58">
+      <c r="E93" s="88">
         <v>32.425246527368699</v>
       </c>
-      <c r="F93" s="58">
+      <c r="F93" s="88">
         <v>0.64393908591596005</v>
       </c>
-      <c r="G93" s="58">
+      <c r="G93" s="88">
         <v>30.155163085697598</v>
       </c>
-      <c r="H93" s="59">
+      <c r="H93" s="89">
         <v>5.4207805241082196</v>
       </c>
-      <c r="I93" s="58">
+      <c r="I93" s="87">
         <v>12.612867577267</v>
       </c>
-      <c r="J93" s="58">
+      <c r="J93" s="88">
         <v>3.73619062484146</v>
       </c>
-      <c r="K93" s="58">
+      <c r="K93" s="88">
         <v>13.490434153218899</v>
       </c>
-      <c r="L93" s="58">
+      <c r="L93" s="88">
         <v>13.5303135102371</v>
       </c>
-      <c r="M93" s="58">
+      <c r="M93" s="88">
         <v>27.183414215055301</v>
       </c>
-      <c r="N93" s="59">
+      <c r="N93" s="89">
         <v>2.3809815264519201</v>
       </c>
-      <c r="O93" s="60">
+      <c r="O93" s="90">
         <v>712.15432099999998</v>
       </c>
-      <c r="P93" s="61">
+      <c r="P93" s="91">
         <v>3082.9701789999999</v>
       </c>
-      <c r="Q93" s="58">
+      <c r="Q93" s="91">
         <v>18.764979146270399</v>
       </c>
-      <c r="R93" s="59">
-        <v>39.483088857997203</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
-      <c r="B94" s="43" t="s">
+      <c r="R93" s="89">
+        <v>39.127634027974203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A94" s="80"/>
+      <c r="B94" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="C94" s="57">
+      <c r="C94" s="87">
         <v>22.711580286722899</v>
       </c>
-      <c r="D94" s="58" t="s">
+      <c r="D94" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="E94" s="58">
+      <c r="E94" s="88">
         <v>65.922995625827298</v>
       </c>
-      <c r="F94" s="58">
+      <c r="F94" s="88">
         <v>10.875212262250701</v>
       </c>
-      <c r="G94" s="58">
+      <c r="G94" s="88">
         <v>9.5560100735944999</v>
       </c>
-      <c r="H94" s="59">
+      <c r="H94" s="89">
         <v>10.5483013292076</v>
       </c>
-      <c r="I94" s="58">
+      <c r="I94" s="87">
         <v>18.265594536762599</v>
       </c>
-      <c r="J94" s="58" t="s">
+      <c r="J94" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K94" s="58">
+      <c r="K94" s="88">
         <v>64.589167654976606</v>
       </c>
-      <c r="L94" s="58">
+      <c r="L94" s="88">
         <v>17.061070210156601</v>
       </c>
-      <c r="M94" s="58">
+      <c r="M94" s="88">
         <v>8.8097821558345597</v>
       </c>
-      <c r="N94" s="59">
+      <c r="N94" s="89">
         <v>13.945754579001999</v>
       </c>
-      <c r="O94" s="60">
+      <c r="O94" s="90">
         <v>193938.38700700001</v>
       </c>
-      <c r="P94" s="61">
+      <c r="P94" s="91">
         <v>101312.79964700001</v>
       </c>
-      <c r="Q94" s="58">
+      <c r="Q94" s="91">
         <v>65.6858958654324</v>
       </c>
-      <c r="R94" s="59">
-        <v>121.71466775722899</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
-      <c r="B95" s="43" t="s">
+      <c r="R94" s="89">
+        <v>121.917568259872</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A95" s="80"/>
+      <c r="B95" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="C95" s="57">
+      <c r="C95" s="87">
         <v>16.017631298406901</v>
       </c>
-      <c r="D95" s="58">
+      <c r="D95" s="88">
         <v>11.3494502118231</v>
       </c>
-      <c r="E95" s="58">
+      <c r="E95" s="88">
         <v>17.422478931674</v>
       </c>
-      <c r="F95" s="58">
+      <c r="F95" s="88">
         <v>7.7442114427678499</v>
       </c>
-      <c r="G95" s="58">
+      <c r="G95" s="88">
         <v>10.9176658884435</v>
       </c>
-      <c r="H95" s="59">
+      <c r="H95" s="89">
         <v>2.4066996348986498</v>
       </c>
-      <c r="I95" s="58">
+      <c r="I95" s="87">
         <v>38.546029740888301</v>
       </c>
-      <c r="J95" s="58">
+      <c r="J95" s="88">
         <v>34.343813516374603</v>
       </c>
-      <c r="K95" s="58">
+      <c r="K95" s="88">
         <v>42.428001772768297</v>
       </c>
-      <c r="L95" s="58">
+      <c r="L95" s="88">
         <v>14.8322810740239</v>
       </c>
-      <c r="M95" s="58">
+      <c r="M95" s="88">
         <v>11.814654102162301</v>
       </c>
-      <c r="N95" s="59">
+      <c r="N95" s="89">
         <v>3.37636557939204</v>
       </c>
-      <c r="O95" s="60">
+      <c r="O95" s="90">
         <v>16390.148110999999</v>
       </c>
-      <c r="P95" s="61">
+      <c r="P95" s="91">
         <v>20061.305762</v>
       </c>
-      <c r="Q95" s="58">
+      <c r="Q95" s="91">
         <v>44.964319305629601</v>
       </c>
-      <c r="R95" s="59">
-        <v>19.708292893879399</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="55"/>
-      <c r="B96" s="62" t="s">
+      <c r="R95" s="89">
+        <v>19.976207554401402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="80"/>
+      <c r="B96" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="C96" s="63">
+      <c r="C96" s="75">
         <v>7.6124496332336298</v>
       </c>
-      <c r="D96" s="64" t="s">
+      <c r="D96" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="E96" s="64">
+      <c r="E96" s="94">
         <v>67.601754733616204</v>
       </c>
-      <c r="F96" s="64">
+      <c r="F96" s="76">
         <v>16.362313041922299</v>
       </c>
-      <c r="G96" s="64">
+      <c r="G96" s="76">
         <v>31.161821545620199</v>
       </c>
-      <c r="H96" s="65">
+      <c r="H96" s="77">
         <v>1.6390982899933799</v>
       </c>
-      <c r="I96" s="64">
+      <c r="I96" s="75">
         <v>6.8724969561984004</v>
       </c>
-      <c r="J96" s="64" t="s">
+      <c r="J96" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="K96" s="64">
+      <c r="K96" s="94">
         <v>60.621723529397997</v>
       </c>
-      <c r="L96" s="64">
+      <c r="L96" s="76">
         <v>25.205819979782699</v>
       </c>
-      <c r="M96" s="64">
+      <c r="M96" s="76">
         <v>15.5822850002486</v>
       </c>
-      <c r="N96" s="65">
+      <c r="N96" s="77">
         <v>2.4913885510232201</v>
       </c>
-      <c r="O96" s="66">
+      <c r="O96" s="78">
         <v>65209.55298</v>
       </c>
-      <c r="P96" s="67">
+      <c r="P96" s="79">
         <v>39064.553243000002</v>
       </c>
-      <c r="Q96" s="64">
+      <c r="Q96" s="79">
         <v>62.536669305554398</v>
       </c>
-      <c r="R96" s="65">
-        <v>36.8757954817751</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
-      <c r="B97" s="68" t="s">
+      <c r="R96" s="77">
+        <v>36.277438415885797</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A97" s="80"/>
+      <c r="B97" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="C97" s="69">
+      <c r="C97" s="99">
         <v>9.7725662185345108</v>
       </c>
-      <c r="D97" s="70">
+      <c r="D97" s="100">
         <v>7.7511132970452801</v>
       </c>
-      <c r="E97" s="70">
+      <c r="E97" s="88">
         <v>11.9151988162564</v>
       </c>
-      <c r="F97" s="70">
+      <c r="F97" s="100">
         <v>13.057617649731901</v>
       </c>
-      <c r="G97" s="70">
+      <c r="G97" s="100">
         <v>28.6471629833195</v>
       </c>
-      <c r="H97" s="71">
+      <c r="H97" s="101">
         <v>4.3436016193360398</v>
       </c>
-      <c r="I97" s="70">
+      <c r="I97" s="99">
         <v>13.160904188356</v>
       </c>
-      <c r="J97" s="70">
+      <c r="J97" s="100">
         <v>10.326860073457601</v>
       </c>
-      <c r="K97" s="70">
+      <c r="K97" s="88">
         <v>15.152540874704</v>
       </c>
-      <c r="L97" s="70">
+      <c r="L97" s="100">
         <v>24.4408257235524</v>
       </c>
-      <c r="M97" s="70">
+      <c r="M97" s="100">
         <v>18.6151286856756</v>
       </c>
-      <c r="N97" s="71">
+      <c r="N97" s="101">
         <v>3.0678105672796598</v>
       </c>
-      <c r="O97" s="72">
+      <c r="O97" s="102">
         <v>31279.468313000001</v>
       </c>
-      <c r="P97" s="73">
+      <c r="P97" s="103">
         <v>106014.552094</v>
       </c>
-      <c r="Q97" s="70">
+      <c r="Q97" s="103">
         <v>22.782833673508801</v>
       </c>
-      <c r="R97" s="71">
-        <v>19.539726708437399</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="55"/>
-      <c r="B98" s="62" t="s">
+      <c r="R97" s="101">
+        <v>19.7151044275437</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="80"/>
+      <c r="B98" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="C98" s="63">
+      <c r="C98" s="93">
         <v>5.5076238990287898</v>
       </c>
-      <c r="D98" s="64" t="s">
+      <c r="D98" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="E98" s="64">
+      <c r="E98" s="94">
         <v>41.753485651620998</v>
       </c>
-      <c r="F98" s="64">
+      <c r="F98" s="94">
         <v>14.448814265984399</v>
       </c>
-      <c r="G98" s="64">
+      <c r="G98" s="94">
         <v>24.419331253349402</v>
       </c>
-      <c r="H98" s="65">
+      <c r="H98" s="95">
         <v>18.6361574729723</v>
       </c>
-      <c r="I98" s="64">
+      <c r="I98" s="93">
         <v>12.4040351559428</v>
       </c>
-      <c r="J98" s="64" t="s">
+      <c r="J98" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="K98" s="64">
+      <c r="K98" s="94">
         <v>74.540410026073005</v>
       </c>
-      <c r="L98" s="64">
+      <c r="L98" s="94">
         <v>28.915809809760098</v>
       </c>
-      <c r="M98" s="64">
+      <c r="M98" s="94">
         <v>5.6120306250178302</v>
       </c>
-      <c r="N98" s="65">
+      <c r="N98" s="95">
         <v>8.2230321828595105</v>
       </c>
-      <c r="O98" s="66">
+      <c r="O98" s="96">
         <v>162136.181984</v>
       </c>
-      <c r="P98" s="67">
+      <c r="P98" s="97">
         <v>59876.868198999997</v>
       </c>
-      <c r="Q98" s="64">
+      <c r="Q98" s="97">
         <v>73.030023167717005</v>
       </c>
-      <c r="R98" s="65">
-        <v>20.798561047527301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="74"/>
-      <c r="B99" s="75"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="48"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48"/>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48"/>
-      <c r="L99" s="48"/>
-      <c r="M99" s="48"/>
-      <c r="N99" s="48"/>
-      <c r="O99" s="48"/>
-      <c r="P99" s="48"/>
-      <c r="Q99" s="48"/>
-      <c r="R99" s="48"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R98" s="95">
+        <v>20.911787888602799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A99" s="105"/>
+      <c r="B99" s="106"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="79"/>
+      <c r="H99" s="79"/>
+      <c r="I99" s="79"/>
+      <c r="J99" s="79"/>
+      <c r="K99" s="79"/>
+      <c r="L99" s="79"/>
+      <c r="M99" s="79"/>
+      <c r="N99" s="79"/>
+      <c r="O99" s="79"/>
+      <c r="P99" s="79"/>
+      <c r="Q99" s="79"/>
+      <c r="R99" s="79"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C100" s="76"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="76"/>
-      <c r="H100" s="76"/>
-      <c r="I100" s="76"/>
-      <c r="J100" s="76"/>
-      <c r="K100" s="76"/>
-      <c r="L100" s="76"/>
-      <c r="M100" s="76"/>
-      <c r="N100" s="76"/>
-      <c r="O100" s="76"/>
-      <c r="P100" s="76"/>
-      <c r="Q100" s="76"/>
-      <c r="R100" s="76"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C100" s="107"/>
+      <c r="D100" s="107"/>
+      <c r="E100" s="107"/>
+      <c r="F100" s="107"/>
+      <c r="G100" s="107"/>
+      <c r="H100" s="107"/>
+      <c r="I100" s="107"/>
+      <c r="J100" s="107"/>
+      <c r="K100" s="107"/>
+      <c r="L100" s="107"/>
+      <c r="M100" s="107"/>
+      <c r="N100" s="107"/>
+      <c r="O100" s="107"/>
+      <c r="P100" s="107"/>
+      <c r="Q100" s="107"/>
+      <c r="R100" s="107"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C101" s="76"/>
-      <c r="D101" s="76"/>
-      <c r="E101" s="76"/>
-      <c r="F101" s="76"/>
-      <c r="G101" s="76"/>
-      <c r="H101" s="76"/>
-      <c r="I101" s="76"/>
-      <c r="J101" s="76"/>
-      <c r="K101" s="76"/>
-      <c r="L101" s="76"/>
-      <c r="M101" s="76"/>
-      <c r="N101" s="76"/>
-      <c r="O101" s="76"/>
-      <c r="P101" s="76"/>
-      <c r="Q101" s="76"/>
-      <c r="R101" s="76"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C101" s="107"/>
+      <c r="D101" s="107"/>
+      <c r="E101" s="107"/>
+      <c r="F101" s="107"/>
+      <c r="G101" s="107"/>
+      <c r="H101" s="107"/>
+      <c r="I101" s="107"/>
+      <c r="J101" s="107"/>
+      <c r="K101" s="107"/>
+      <c r="L101" s="107"/>
+      <c r="M101" s="107"/>
+      <c r="N101" s="107"/>
+      <c r="O101" s="107"/>
+      <c r="P101" s="107"/>
+      <c r="Q101" s="107"/>
+      <c r="R101" s="107"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C102" s="76"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76"/>
-      <c r="F102" s="76"/>
-      <c r="G102" s="76"/>
-      <c r="H102" s="76"/>
-      <c r="I102" s="76"/>
-      <c r="J102" s="76"/>
-      <c r="K102" s="76"/>
-      <c r="L102" s="76"/>
-      <c r="M102" s="76"/>
-      <c r="N102" s="76"/>
-      <c r="O102" s="76"/>
-      <c r="P102" s="76"/>
-      <c r="Q102" s="76"/>
-      <c r="R102" s="76"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C102" s="107"/>
+      <c r="D102" s="107"/>
+      <c r="E102" s="107"/>
+      <c r="F102" s="107"/>
+      <c r="G102" s="107"/>
+      <c r="H102" s="107"/>
+      <c r="I102" s="107"/>
+      <c r="J102" s="107"/>
+      <c r="K102" s="107"/>
+      <c r="L102" s="107"/>
+      <c r="M102" s="107"/>
+      <c r="N102" s="107"/>
+      <c r="O102" s="107"/>
+      <c r="P102" s="107"/>
+      <c r="Q102" s="107"/>
+      <c r="R102" s="107"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="76"/>
-      <c r="I103" s="76"/>
-      <c r="J103" s="76"/>
-      <c r="K103" s="76"/>
-      <c r="L103" s="76"/>
-      <c r="M103" s="76"/>
-      <c r="N103" s="76"/>
-      <c r="O103" s="76"/>
-      <c r="P103" s="76"/>
-      <c r="Q103" s="76"/>
-      <c r="R103" s="76"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C103" s="107"/>
+      <c r="D103" s="107"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="107"/>
+      <c r="G103" s="107"/>
+      <c r="H103" s="107"/>
+      <c r="I103" s="107"/>
+      <c r="J103" s="107"/>
+      <c r="K103" s="107"/>
+      <c r="L103" s="107"/>
+      <c r="M103" s="107"/>
+      <c r="N103" s="107"/>
+      <c r="O103" s="107"/>
+      <c r="P103" s="107"/>
+      <c r="Q103" s="107"/>
+      <c r="R103" s="107"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C104" s="76"/>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="76"/>
-      <c r="G104" s="76"/>
-      <c r="H104" s="76"/>
-      <c r="I104" s="76"/>
-      <c r="J104" s="76"/>
-      <c r="K104" s="76"/>
-      <c r="L104" s="76"/>
-      <c r="M104" s="76"/>
-      <c r="N104" s="76"/>
-      <c r="O104" s="76"/>
-      <c r="P104" s="76"/>
-      <c r="Q104" s="76"/>
-      <c r="R104" s="76"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C105" s="76"/>
-      <c r="D105" s="76"/>
-      <c r="E105" s="76"/>
-      <c r="F105" s="76"/>
-      <c r="G105" s="76"/>
-      <c r="H105" s="76"/>
-      <c r="I105" s="76"/>
-      <c r="J105" s="76"/>
-      <c r="K105" s="76"/>
-      <c r="L105" s="76"/>
-      <c r="M105" s="76"/>
-      <c r="N105" s="76"/>
-      <c r="O105" s="76"/>
-      <c r="P105" s="76"/>
-      <c r="Q105" s="76"/>
-      <c r="R105" s="76"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C106" s="76"/>
-      <c r="D106" s="76"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="76"/>
-      <c r="H106" s="76"/>
-      <c r="I106" s="76"/>
-      <c r="J106" s="76"/>
-      <c r="K106" s="76"/>
-      <c r="L106" s="76"/>
-      <c r="M106" s="76"/>
-      <c r="N106" s="76"/>
-      <c r="O106" s="76"/>
-      <c r="P106" s="76"/>
-      <c r="Q106" s="76"/>
-      <c r="R106" s="76"/>
-    </row>
-    <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="77" t="s">
+      <c r="C104" s="107"/>
+      <c r="D104" s="107"/>
+      <c r="E104" s="107"/>
+      <c r="F104" s="107"/>
+      <c r="G104" s="107"/>
+      <c r="H104" s="107"/>
+      <c r="I104" s="107"/>
+      <c r="J104" s="107"/>
+      <c r="K104" s="107"/>
+      <c r="L104" s="107"/>
+      <c r="M104" s="107"/>
+      <c r="N104" s="107"/>
+      <c r="O104" s="107"/>
+      <c r="P104" s="107"/>
+      <c r="Q104" s="107"/>
+      <c r="R104" s="107"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C105" s="107"/>
+      <c r="D105" s="107"/>
+      <c r="E105" s="107"/>
+      <c r="F105" s="107"/>
+      <c r="G105" s="107"/>
+      <c r="H105" s="107"/>
+      <c r="I105" s="107"/>
+      <c r="J105" s="107"/>
+      <c r="K105" s="107"/>
+      <c r="L105" s="107"/>
+      <c r="M105" s="107"/>
+      <c r="N105" s="107"/>
+      <c r="O105" s="107"/>
+      <c r="P105" s="107"/>
+      <c r="Q105" s="107"/>
+      <c r="R105" s="107"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B106" s="108"/>
+      <c r="C106" s="107"/>
+      <c r="D106" s="107"/>
+      <c r="E106" s="107"/>
+      <c r="F106" s="107"/>
+      <c r="G106" s="107"/>
+      <c r="H106" s="107"/>
+      <c r="I106" s="107"/>
+      <c r="J106" s="107"/>
+      <c r="K106" s="107"/>
+      <c r="L106" s="107"/>
+      <c r="M106" s="107"/>
+      <c r="N106" s="107"/>
+      <c r="O106" s="107"/>
+      <c r="P106" s="107"/>
+      <c r="Q106" s="107"/>
+      <c r="R106" s="107"/>
+    </row>
+    <row r="107" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="C107" s="76"/>
-      <c r="D107" s="76"/>
-      <c r="E107" s="76"/>
-      <c r="F107" s="76"/>
-      <c r="G107" s="76"/>
-      <c r="H107" s="76"/>
-      <c r="I107" s="76"/>
-      <c r="J107" s="76"/>
-      <c r="K107" s="76"/>
-      <c r="L107" s="76"/>
-      <c r="M107" s="76"/>
-      <c r="N107" s="76"/>
-      <c r="O107" s="76"/>
-      <c r="P107" s="76"/>
-      <c r="Q107" s="76"/>
-      <c r="R107" s="76"/>
-    </row>
-    <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="77"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="76"/>
-      <c r="H108" s="76"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="76"/>
-      <c r="K108" s="76"/>
-      <c r="L108" s="76"/>
-      <c r="M108" s="76"/>
-      <c r="N108" s="76"/>
-      <c r="O108" s="76"/>
-      <c r="P108" s="76"/>
-      <c r="Q108" s="76"/>
-      <c r="R108" s="76"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C107" s="107"/>
+      <c r="D107" s="107"/>
+      <c r="E107" s="107"/>
+      <c r="F107" s="107"/>
+      <c r="G107" s="107"/>
+      <c r="H107" s="107"/>
+      <c r="I107" s="107"/>
+      <c r="J107" s="107"/>
+      <c r="K107" s="107"/>
+      <c r="L107" s="107"/>
+      <c r="M107" s="107"/>
+      <c r="N107" s="107"/>
+      <c r="O107" s="107"/>
+      <c r="P107" s="107"/>
+      <c r="Q107" s="107"/>
+      <c r="R107" s="107"/>
+    </row>
+    <row r="108" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B108" s="109"/>
+      <c r="C108" s="107"/>
+      <c r="D108" s="107"/>
+      <c r="E108" s="107"/>
+      <c r="F108" s="107"/>
+      <c r="G108" s="107"/>
+      <c r="H108" s="107"/>
+      <c r="I108" s="107"/>
+      <c r="J108" s="107"/>
+      <c r="K108" s="107"/>
+      <c r="L108" s="107"/>
+      <c r="M108" s="107"/>
+      <c r="N108" s="107"/>
+      <c r="O108" s="107"/>
+      <c r="P108" s="107"/>
+      <c r="Q108" s="107"/>
+      <c r="R108" s="107"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C109" s="107"/>
+      <c r="D109" s="107"/>
+      <c r="E109" s="107"/>
+      <c r="F109" s="107"/>
+      <c r="G109" s="107"/>
+      <c r="H109" s="107"/>
+      <c r="I109" s="107"/>
+      <c r="J109" s="107"/>
+      <c r="K109" s="107"/>
+      <c r="L109" s="107"/>
+      <c r="M109" s="107"/>
+      <c r="N109" s="107"/>
+      <c r="O109" s="107"/>
+      <c r="P109" s="107"/>
+      <c r="Q109" s="107"/>
+      <c r="R109" s="107"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B110" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C109" s="76"/>
-      <c r="D109" s="76"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="76"/>
-      <c r="H109" s="76"/>
-      <c r="I109" s="76"/>
-      <c r="J109" s="76"/>
-      <c r="K109" s="76"/>
-      <c r="L109" s="76"/>
-      <c r="M109" s="76"/>
-      <c r="N109" s="76"/>
-      <c r="O109" s="76"/>
-      <c r="P109" s="76"/>
-      <c r="Q109" s="76"/>
-      <c r="R109" s="76"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="107"/>
+      <c r="D110" s="107"/>
+      <c r="E110" s="107"/>
+      <c r="F110" s="107"/>
+      <c r="G110" s="107"/>
+      <c r="H110" s="107"/>
+      <c r="I110" s="107"/>
+      <c r="J110" s="107"/>
+      <c r="K110" s="107"/>
+      <c r="L110" s="107"/>
+      <c r="M110" s="107"/>
+      <c r="N110" s="107"/>
+      <c r="O110" s="107"/>
+      <c r="P110" s="107"/>
+      <c r="Q110" s="107"/>
+      <c r="R110" s="107"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B111" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="C110" s="76"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="76"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="76"/>
-      <c r="H110" s="76"/>
-      <c r="I110" s="76"/>
-      <c r="J110" s="76"/>
-      <c r="K110" s="76"/>
-      <c r="L110" s="76"/>
-      <c r="M110" s="76"/>
-      <c r="N110" s="76"/>
-      <c r="O110" s="76"/>
-      <c r="P110" s="76"/>
-      <c r="Q110" s="76"/>
-      <c r="R110" s="76"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C111" s="76"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="76"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="76"/>
-      <c r="H111" s="76"/>
-      <c r="I111" s="76"/>
-      <c r="J111" s="76"/>
-      <c r="K111" s="76"/>
-      <c r="L111" s="76"/>
-      <c r="M111" s="76"/>
-      <c r="N111" s="76"/>
-      <c r="O111" s="76"/>
-      <c r="P111" s="76"/>
-      <c r="Q111" s="76"/>
-      <c r="R111" s="76"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C111" s="107"/>
+      <c r="D111" s="107"/>
+      <c r="E111" s="107"/>
+      <c r="F111" s="107"/>
+      <c r="G111" s="107"/>
+      <c r="H111" s="107"/>
+      <c r="I111" s="107"/>
+      <c r="J111" s="107"/>
+      <c r="K111" s="107"/>
+      <c r="L111" s="107"/>
+      <c r="M111" s="107"/>
+      <c r="N111" s="107"/>
+      <c r="O111" s="107"/>
+      <c r="P111" s="107"/>
+      <c r="Q111" s="107"/>
+      <c r="R111" s="107"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="76"/>
-      <c r="H112" s="76"/>
-      <c r="I112" s="76"/>
-      <c r="J112" s="76"/>
-      <c r="K112" s="76"/>
-      <c r="L112" s="76"/>
-      <c r="M112" s="76"/>
-      <c r="N112" s="76"/>
-      <c r="O112" s="76"/>
-      <c r="P112" s="76"/>
-      <c r="Q112" s="76"/>
-      <c r="R112" s="76"/>
-    </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C113" s="76"/>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="76"/>
-      <c r="I113" s="76"/>
-      <c r="J113" s="76"/>
-      <c r="K113" s="76"/>
-      <c r="L113" s="76"/>
-      <c r="M113" s="76"/>
-      <c r="N113" s="76"/>
-      <c r="O113" s="76"/>
-      <c r="P113" s="76"/>
-      <c r="Q113" s="76"/>
-      <c r="R113" s="76"/>
-    </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C112" s="107"/>
+      <c r="D112" s="107"/>
+      <c r="E112" s="107"/>
+      <c r="F112" s="107"/>
+      <c r="G112" s="107"/>
+      <c r="H112" s="107"/>
+      <c r="I112" s="107"/>
+      <c r="J112" s="107"/>
+      <c r="K112" s="107"/>
+      <c r="L112" s="107"/>
+      <c r="M112" s="107"/>
+      <c r="N112" s="107"/>
+      <c r="O112" s="107"/>
+      <c r="P112" s="107"/>
+      <c r="Q112" s="107"/>
+      <c r="R112" s="107"/>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B113" s="2"/>
+      <c r="C113" s="107"/>
+      <c r="D113" s="107"/>
+      <c r="E113" s="107"/>
+      <c r="F113" s="107"/>
+      <c r="G113" s="107"/>
+      <c r="H113" s="107"/>
+      <c r="I113" s="107"/>
+      <c r="J113" s="107"/>
+      <c r="K113" s="107"/>
+      <c r="L113" s="107"/>
+      <c r="M113" s="107"/>
+      <c r="N113" s="107"/>
+      <c r="O113" s="107"/>
+      <c r="P113" s="107"/>
+      <c r="Q113" s="107"/>
+      <c r="R113" s="107"/>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B114" s="2"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="76"/>
-      <c r="H114" s="76"/>
-      <c r="I114" s="76"/>
-      <c r="J114" s="76"/>
-      <c r="K114" s="76"/>
-      <c r="L114" s="76"/>
-      <c r="M114" s="76"/>
-      <c r="N114" s="76"/>
-      <c r="O114" s="76"/>
-      <c r="P114" s="76"/>
-      <c r="Q114" s="76"/>
-      <c r="R114" s="76"/>
+      <c r="C114" s="107"/>
+      <c r="D114" s="107"/>
+      <c r="E114" s="107"/>
+      <c r="F114" s="107"/>
+      <c r="G114" s="107"/>
+      <c r="H114" s="107"/>
+      <c r="I114" s="107"/>
+      <c r="J114" s="107"/>
+      <c r="K114" s="107"/>
+      <c r="L114" s="107"/>
+      <c r="M114" s="107"/>
+      <c r="N114" s="107"/>
+      <c r="O114" s="107"/>
+      <c r="P114" s="107"/>
+      <c r="Q114" s="107"/>
+      <c r="R114" s="107"/>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B115" s="108"/>
+      <c r="C115" s="110"/>
+      <c r="D115" s="110"/>
+      <c r="E115" s="110"/>
+      <c r="F115" s="110"/>
+      <c r="G115" s="110"/>
+      <c r="H115" s="110"/>
+      <c r="I115" s="110"/>
+      <c r="J115" s="110"/>
+      <c r="K115" s="110"/>
+      <c r="L115" s="110"/>
+      <c r="M115" s="110"/>
+      <c r="N115" s="110"/>
+      <c r="O115" s="111"/>
+      <c r="P115" s="111"/>
+      <c r="Q115" s="111"/>
+      <c r="R115" s="110"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{650E6304-0304-4BCD-B193-07CC5C6D68EB}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2E4EE07F-94A8-412D-862C-C138DBC230CC}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{807CB442-94A2-44B9-B6C9-06E34113B5D3}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{3AB199BA-706E-46E3-A7DF-0605A5A861D4}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{6A013E0F-2A9D-4ACE-B3CA-60E09C9D4D88}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{3D1F5EDE-9DC1-47E2-B8BC-89C1FCF2323B}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{DE0110A0-B4F2-4575-B8DB-221651BEB37D}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BDB20863-9DF2-44F6-84E8-2E33FFD2F185}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{45406EC6-AE44-4D30-8BF5-A99AA6DF2D6B}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{09E2C976-FA80-4876-85B5-B66C90CBF18F}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{BBBA4180-8C3C-45FC-8B4C-EFD4074B193A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/DDAf_2024_Tableau_annexe_Tab19.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFC73A62-46F8-4929-86DB-2D20DE1F7C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC7421A2-0443-421C-A44F-E6477438805B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{FC4BDAA4-CFA8-44D3-B9FF-48506C7C3EEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C44FCCCB-3ABE-49DD-8747-B08F11A0C590}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -1571,22 +1571,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54F4E35-673D-49FC-A75A-430F10C5DC0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64240F87-0482-42ED-BD06-76D97ACBDF74}">
   <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="112" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" style="112" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1607,7 +1607,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:18" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>40.813442678227403</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>43.624379790981301</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>23</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>43.829967379074297</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>42.694563367900699</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>9.0747867376323406</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>51.1178042333338</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>42.259728200385403</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>33.538436009656401</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>42.729213004668402</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>37</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>23.8201475980708</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>39</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>35.549619576237099</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>7.4290142971997897</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>43</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>19.4743321602155</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>45</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>13.7289820231133</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>38.233387847591999</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>49</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>82.520932154697903</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>42.1405097169824</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>53</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>56.369554260410503</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>55</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>44.845321877273904</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>57</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>17.334516380739299</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
         <v>39</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>37.433046433438903</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>60</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>13.5904709826951</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>152.281685951611</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>64</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>67</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>8.7847747074909392</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>69</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>12.173903334558499</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>71</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>30.417452199998401</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>73</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>38.654775700319099</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>75</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>22.4989025754126</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>77</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>109.02150369389101</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>79</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>17.313622215918699</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>81</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>58.1138442393083</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>83</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>19.4203637389416</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>85</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>16.041496489134101</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>87</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>12.8554791614183</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>39</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>15.894885496073201</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>90</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>30.616570795852301</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>92</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>14.9047718234666</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>94</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>96</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>42.567500208991703</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>44.809639156712301</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>100</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>50.285505297433403</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="40" t="s">
         <v>39</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>24.475710364644598</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>103</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>23.810860690307699</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>105</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>28.9660109866246</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>107</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>35.592160010869698</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>109</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>24.122120703777899</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>111</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>12.388138016448201</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>113</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>35.635431177342703</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>115</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>42.310542818440403</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>117</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>15.386188515194901</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>119</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>32.045142879483898</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>121</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>31.298871043211602</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>123</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>11.815640404023</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>125</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>14.473111298437599</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>127</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>26.958167664791699</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>129</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>28.727712760121701</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>131</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>30.770450061396701</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="41" t="s">
         <v>133</v>
@@ -4965,7 +4965,7 @@
         <v>20.051232902647701</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="67"/>
       <c r="B62" s="68" t="s">
         <v>134</v>
@@ -5019,7 +5019,7 @@
         <v>24.587225242248401</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="67"/>
       <c r="B63" s="74" t="s">
         <v>135</v>
@@ -5073,7 +5073,7 @@
         <v>31.631298662627898</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="80"/>
       <c r="B64" s="81" t="s">
         <v>136</v>
@@ -5127,7 +5127,7 @@
         <v>28.510709152810101</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="80"/>
       <c r="B65" s="74" t="s">
         <v>137</v>
@@ -5181,7 +5181,7 @@
         <v>25.907680794959202</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="80"/>
       <c r="B66" s="92" t="s">
         <v>138</v>
@@ -5235,7 +5235,7 @@
         <v>31.271925074722201</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="80"/>
       <c r="B67" s="74" t="s">
         <v>139</v>
@@ -5289,7 +5289,7 @@
         <v>18.735784196534699</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="80"/>
       <c r="B68" s="74" t="s">
         <v>140</v>
@@ -5343,7 +5343,7 @@
         <v>21.5648415770669</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="80"/>
       <c r="B69" s="74" t="s">
         <v>141</v>
@@ -5397,7 +5397,7 @@
         <v>18.809653949897001</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="80"/>
       <c r="B70" s="74" t="s">
         <v>142</v>
@@ -5451,7 +5451,7 @@
         <v>37.809898682305302</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="80"/>
       <c r="B71" s="74" t="s">
         <v>143</v>
@@ -5505,7 +5505,7 @@
         <v>20.051232902647701</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="80"/>
       <c r="B72" s="74" t="s">
         <v>144</v>
@@ -5559,7 +5559,7 @@
         <v>13.8240850142389</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="80"/>
       <c r="B73" s="74" t="s">
         <v>145</v>
@@ -5613,7 +5613,7 @@
         <v>33.945571531824797</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="80"/>
       <c r="B74" s="74" t="s">
         <v>145</v>
@@ -5667,7 +5667,7 @@
         <v>37.645671089897299</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="80"/>
       <c r="B75" s="74" t="s">
         <v>146</v>
@@ -5721,7 +5721,7 @@
         <v>41.827749207960302</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="80"/>
       <c r="B76" s="98" t="s">
         <v>147</v>
@@ -5775,7 +5775,7 @@
         <v>56.879701027167002</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="80"/>
       <c r="B77" s="74" t="s">
         <v>148</v>
@@ -5829,7 +5829,7 @@
         <v>22.237804669913</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="80"/>
       <c r="B78" s="74" t="s">
         <v>148</v>
@@ -5883,7 +5883,7 @@
         <v>55.949318143443101</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="80"/>
       <c r="B79" s="92" t="s">
         <v>149</v>
@@ -5937,7 +5937,7 @@
         <v>33.411882715124399</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="80"/>
       <c r="B80" s="74" t="s">
         <v>150</v>
@@ -5991,7 +5991,7 @@
         <v>36.150171598979902</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="80"/>
       <c r="B81" s="74" t="s">
         <v>151</v>
@@ -6045,7 +6045,7 @@
         <v>40.335633648728397</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="80"/>
       <c r="B82" s="74" t="s">
         <v>152</v>
@@ -6099,7 +6099,7 @@
         <v>22.8214907392925</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="80"/>
       <c r="B83" s="74" t="s">
         <v>153</v>
@@ -6153,7 +6153,7 @@
         <v>30.845300600351699</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="80"/>
       <c r="B84" s="98" t="s">
         <v>154</v>
@@ -6207,7 +6207,7 @@
         <v>21.302383715196601</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="80"/>
       <c r="B85" s="104" t="s">
         <v>155</v>
@@ -6261,7 +6261,7 @@
         <v>11.8942385036412</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="80"/>
       <c r="B86" s="74" t="s">
         <v>156</v>
@@ -6315,7 +6315,7 @@
         <v>23.1849552058789</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="80"/>
       <c r="B87" s="74" t="s">
         <v>157</v>
@@ -6369,7 +6369,7 @@
         <v>27.7955928547224</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="80"/>
       <c r="B88" s="74" t="s">
         <v>158</v>
@@ -6423,7 +6423,7 @@
         <v>35.323441874854602</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="80"/>
       <c r="B89" s="74" t="s">
         <v>159</v>
@@ -6477,7 +6477,7 @@
         <v>27.3682020488605</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="80"/>
       <c r="B90" s="92" t="s">
         <v>160</v>
@@ -6531,7 +6531,7 @@
         <v>36.147244697029798</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="80"/>
       <c r="B91" s="74" t="s">
         <v>161</v>
@@ -6585,7 +6585,7 @@
         <v>25.428252989779399</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="80"/>
       <c r="B92" s="74" t="s">
         <v>162</v>
@@ -6639,7 +6639,7 @@
         <v>17.543359946331499</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="80"/>
       <c r="B93" s="74" t="s">
         <v>163</v>
@@ -6693,7 +6693,7 @@
         <v>39.127634027974203</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="80"/>
       <c r="B94" s="74" t="s">
         <v>164</v>
@@ -6747,7 +6747,7 @@
         <v>121.917568259872</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="80"/>
       <c r="B95" s="74" t="s">
         <v>165</v>
@@ -6801,7 +6801,7 @@
         <v>19.976207554401402</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="80"/>
       <c r="B96" s="74" t="s">
         <v>166</v>
@@ -6855,7 +6855,7 @@
         <v>36.277438415885797</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="80"/>
       <c r="B97" s="98" t="s">
         <v>167</v>
@@ -6909,7 +6909,7 @@
         <v>19.7151044275437</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="80"/>
       <c r="B98" s="92" t="s">
         <v>168</v>
@@ -6963,7 +6963,7 @@
         <v>20.911787888602799</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="105"/>
       <c r="B99" s="106"/>
       <c r="C99" s="79"/>
@@ -6983,7 +6983,7 @@
       <c r="Q99" s="79"/>
       <c r="R99" s="79"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>169</v>
       </c>
@@ -7004,7 +7004,7 @@
       <c r="Q100" s="107"/>
       <c r="R100" s="107"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>170</v>
       </c>
@@ -7025,7 +7025,7 @@
       <c r="Q101" s="107"/>
       <c r="R101" s="107"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>171</v>
       </c>
@@ -7046,7 +7046,7 @@
       <c r="Q102" s="107"/>
       <c r="R102" s="107"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>172</v>
       </c>
@@ -7067,7 +7067,7 @@
       <c r="Q103" s="107"/>
       <c r="R103" s="107"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>173</v>
       </c>
@@ -7088,7 +7088,7 @@
       <c r="Q104" s="107"/>
       <c r="R104" s="107"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C105" s="107"/>
       <c r="D105" s="107"/>
       <c r="E105" s="107"/>
@@ -7106,7 +7106,7 @@
       <c r="Q105" s="107"/>
       <c r="R105" s="107"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B106" s="108"/>
       <c r="C106" s="107"/>
       <c r="D106" s="107"/>
@@ -7125,7 +7125,7 @@
       <c r="Q106" s="107"/>
       <c r="R106" s="107"/>
     </row>
-    <row r="107" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="109" t="s">
         <v>174</v>
       </c>
@@ -7146,7 +7146,7 @@
       <c r="Q107" s="107"/>
       <c r="R107" s="107"/>
     </row>
-    <row r="108" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="109"/>
       <c r="C108" s="107"/>
       <c r="D108" s="107"/>
@@ -7165,7 +7165,7 @@
       <c r="Q108" s="107"/>
       <c r="R108" s="107"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>176</v>
       </c>
@@ -7186,7 +7186,7 @@
       <c r="Q109" s="107"/>
       <c r="R109" s="107"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>177</v>
       </c>
@@ -7207,7 +7207,7 @@
       <c r="Q110" s="107"/>
       <c r="R110" s="107"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B111" s="113" t="s">
         <v>178</v>
       </c>
@@ -7228,7 +7228,7 @@
       <c r="Q111" s="107"/>
       <c r="R111" s="107"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>175</v>
       </c>
@@ -7249,7 +7249,7 @@
       <c r="Q112" s="107"/>
       <c r="R112" s="107"/>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="107"/>
       <c r="D113" s="107"/>
@@ -7268,7 +7268,7 @@
       <c r="Q113" s="107"/>
       <c r="R113" s="107"/>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="107"/>
       <c r="D114" s="107"/>
@@ -7287,7 +7287,7 @@
       <c r="Q114" s="107"/>
       <c r="R114" s="107"/>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B115" s="108"/>
       <c r="C115" s="110"/>
       <c r="D115" s="110"/>
@@ -7308,11 +7308,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{DE0110A0-B4F2-4575-B8DB-221651BEB37D}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BDB20863-9DF2-44F6-84E8-2E33FFD2F185}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{45406EC6-AE44-4D30-8BF5-A99AA6DF2D6B}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{09E2C976-FA80-4876-85B5-B66C90CBF18F}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{BBBA4180-8C3C-45FC-8B4C-EFD4074B193A}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{FFBA8296-ADC7-4983-A3CE-ECB935B68911}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6AD988FC-BA53-425B-A976-A55A4B261561}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{A39E1B6E-4816-4AB9-8214-7DA70199409D}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{A2D235E7-113F-4378-A22F-B502C7CA5E47}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{FD9B856E-B0F2-47DA-9C50-160A15D810B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab19.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC7421A2-0443-421C-A44F-E6477438805B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{512CC154-3A27-446D-8ECB-FB1E2460349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C44FCCCB-3ABE-49DD-8747-B08F11A0C590}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{C7A4093B-812F-4E29-9762-48A6FB6F868F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -711,17 +711,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
       <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1250,12 +1250,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1571,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64240F87-0482-42ED-BD06-76D97ACBDF74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF9CCDE-6140-4527-B735-849C986766B6}">
   <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1580,9 +1580,9 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="113" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="113" bestFit="1" customWidth="1"/>
     <col min="10" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7107,7 +7107,6 @@
       <c r="R105" s="107"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B106" s="108"/>
       <c r="C106" s="107"/>
       <c r="D106" s="107"/>
       <c r="E106" s="107"/>
@@ -7126,7 +7125,7 @@
       <c r="R106" s="107"/>
     </row>
     <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="109" t="s">
+      <c r="B107" s="108" t="s">
         <v>174</v>
       </c>
       <c r="C107" s="107"/>
@@ -7147,7 +7146,7 @@
       <c r="R107" s="107"/>
     </row>
     <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="109"/>
+      <c r="B108" s="108"/>
       <c r="C108" s="107"/>
       <c r="D108" s="107"/>
       <c r="E108" s="107"/>
@@ -7208,7 +7207,7 @@
       <c r="R110" s="107"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B111" s="113" t="s">
+      <c r="B111" s="109" t="s">
         <v>178</v>
       </c>
       <c r="C111" s="107"/>
@@ -7229,7 +7228,7 @@
       <c r="R111" s="107"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="109" t="s">
         <v>175</v>
       </c>
       <c r="C112" s="107"/>
@@ -7288,31 +7287,31 @@
       <c r="R114" s="107"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B115" s="108"/>
-      <c r="C115" s="110"/>
-      <c r="D115" s="110"/>
-      <c r="E115" s="110"/>
-      <c r="F115" s="110"/>
-      <c r="G115" s="110"/>
-      <c r="H115" s="110"/>
-      <c r="I115" s="110"/>
-      <c r="J115" s="110"/>
-      <c r="K115" s="110"/>
-      <c r="L115" s="110"/>
-      <c r="M115" s="110"/>
-      <c r="N115" s="110"/>
-      <c r="O115" s="111"/>
-      <c r="P115" s="111"/>
-      <c r="Q115" s="111"/>
-      <c r="R115" s="110"/>
+      <c r="B115" s="110"/>
+      <c r="C115" s="111"/>
+      <c r="D115" s="111"/>
+      <c r="E115" s="111"/>
+      <c r="F115" s="111"/>
+      <c r="G115" s="111"/>
+      <c r="H115" s="111"/>
+      <c r="I115" s="111"/>
+      <c r="J115" s="111"/>
+      <c r="K115" s="111"/>
+      <c r="L115" s="111"/>
+      <c r="M115" s="111"/>
+      <c r="N115" s="111"/>
+      <c r="O115" s="112"/>
+      <c r="P115" s="112"/>
+      <c r="Q115" s="112"/>
+      <c r="R115" s="111"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{FFBA8296-ADC7-4983-A3CE-ECB935B68911}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6AD988FC-BA53-425B-A976-A55A4B261561}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{A39E1B6E-4816-4AB9-8214-7DA70199409D}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{A2D235E7-113F-4378-A22F-B502C7CA5E47}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{FD9B856E-B0F2-47DA-9C50-160A15D810B1}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C56CB285-1B3A-42D8-AAA1-53E520A53222}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{09A95C82-0FB0-4E8C-AAB4-08D602225167}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{F88A1CA8-7517-4222-B66A-176A30B0435C}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{87D510F7-2C9E-4C95-8E67-CCF7255592F4}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{98D035C7-4423-4302-B70D-C3404BBE7EBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab19.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{512CC154-3A27-446D-8ECB-FB1E2460349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F199F298-11C0-40CF-AA62-12277EB66D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{C7A4093B-812F-4E29-9762-48A6FB6F868F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28C78AA8-6C56-4A3D-B0D6-A1128F294C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="181">
   <si>
     <t>Tableau 19 : Commerce international et régional</t>
   </si>
@@ -479,13 +479,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1571,7 +1577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF9CCDE-6140-4527-B735-849C986766B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1920F339-A05E-4338-8CA8-D596D3870990}">
   <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5616,7 +5622,7 @@
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="80"/>
       <c r="B74" s="74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C74" s="87">
         <v>4.3921420099578796</v>
@@ -5670,7 +5676,7 @@
     <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="80"/>
       <c r="B75" s="74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C75" s="75">
         <v>4.6655558427269801</v>
@@ -5724,7 +5730,7 @@
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="80"/>
       <c r="B76" s="98" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C76" s="99">
         <v>21.209464544092501</v>
@@ -5778,7 +5784,7 @@
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="80"/>
       <c r="B77" s="74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C77" s="87">
         <v>16.031759773472</v>
@@ -5832,7 +5838,7 @@
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="80"/>
       <c r="B78" s="74" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C78" s="87">
         <v>60.397327263203998</v>
@@ -5886,7 +5892,7 @@
     <row r="79" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="80"/>
       <c r="B79" s="92" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C79" s="93">
         <v>29.587428475539198</v>
@@ -5940,7 +5946,7 @@
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="80"/>
       <c r="B80" s="74" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C80" s="87">
         <v>2.0897597419826899</v>
@@ -5994,7 +6000,7 @@
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="80"/>
       <c r="B81" s="74" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C81" s="87">
         <v>0.53431925391224</v>
@@ -6048,7 +6054,7 @@
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="80"/>
       <c r="B82" s="74" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C82" s="87">
         <v>13.8454088641562</v>
@@ -6102,7 +6108,7 @@
     <row r="83" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="80"/>
       <c r="B83" s="74" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C83" s="75">
         <v>22.1515023460409</v>
@@ -6156,7 +6162,7 @@
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="80"/>
       <c r="B84" s="98" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C84" s="99">
         <v>11.461290481459301</v>
@@ -6210,7 +6216,7 @@
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="80"/>
       <c r="B85" s="104" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C85" s="87" t="s">
         <v>66</v>
@@ -6264,7 +6270,7 @@
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="80"/>
       <c r="B86" s="74" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C86" s="87">
         <v>8.8777007618151291</v>
@@ -6318,7 +6324,7 @@
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="80"/>
       <c r="B87" s="74" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C87" s="87">
         <v>5.5162344082911003</v>
@@ -6372,7 +6378,7 @@
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="80"/>
       <c r="B88" s="74" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C88" s="87">
         <v>14.5667732114985</v>
@@ -6426,7 +6432,7 @@
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="80"/>
       <c r="B89" s="74" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C89" s="87">
         <v>5.2953249483820004</v>
@@ -6480,7 +6486,7 @@
     <row r="90" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="80"/>
       <c r="B90" s="92" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C90" s="93">
         <v>29.321540045376899</v>
@@ -6534,7 +6540,7 @@
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="80"/>
       <c r="B91" s="74" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C91" s="87">
         <v>10.846706425173201</v>
@@ -6588,7 +6594,7 @@
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="80"/>
       <c r="B92" s="74" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C92" s="87">
         <v>9.7441114878564292</v>
@@ -6642,7 +6648,7 @@
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="80"/>
       <c r="B93" s="74" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C93" s="87">
         <v>31.565919159765301</v>
@@ -6696,7 +6702,7 @@
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="80"/>
       <c r="B94" s="74" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C94" s="87">
         <v>22.711580286722899</v>
@@ -6750,7 +6756,7 @@
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="80"/>
       <c r="B95" s="74" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C95" s="87">
         <v>16.017631298406901</v>
@@ -6804,7 +6810,7 @@
     <row r="96" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="80"/>
       <c r="B96" s="74" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C96" s="75">
         <v>7.6124496332336298</v>
@@ -6858,7 +6864,7 @@
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="80"/>
       <c r="B97" s="98" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C97" s="99">
         <v>9.7725662185345108</v>
@@ -6912,7 +6918,7 @@
     <row r="98" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="80"/>
       <c r="B98" s="92" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C98" s="93">
         <v>5.5076238990287898</v>
@@ -6985,7 +6991,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C100" s="107"/>
       <c r="D100" s="107"/>
@@ -7006,7 +7012,7 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C101" s="107"/>
       <c r="D101" s="107"/>
@@ -7027,7 +7033,7 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C102" s="107"/>
       <c r="D102" s="107"/>
@@ -7048,7 +7054,7 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C103" s="107"/>
       <c r="D103" s="107"/>
@@ -7069,7 +7075,7 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C104" s="107"/>
       <c r="D104" s="107"/>
@@ -7126,7 +7132,7 @@
     </row>
     <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="108" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C107" s="107"/>
       <c r="D107" s="107"/>
@@ -7166,7 +7172,7 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C109" s="107"/>
       <c r="D109" s="107"/>
@@ -7187,7 +7193,7 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C110" s="107"/>
       <c r="D110" s="107"/>
@@ -7208,7 +7214,7 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B111" s="109" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C111" s="107"/>
       <c r="D111" s="107"/>
@@ -7229,7 +7235,7 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B112" s="109" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C112" s="107"/>
       <c r="D112" s="107"/>
@@ -7307,11 +7313,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C56CB285-1B3A-42D8-AAA1-53E520A53222}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{09A95C82-0FB0-4E8C-AAB4-08D602225167}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{F88A1CA8-7517-4222-B66A-176A30B0435C}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{87D510F7-2C9E-4C95-8E67-CCF7255592F4}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{98D035C7-4423-4302-B70D-C3404BBE7EBF}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1A3E0008-340B-4439-8D88-7A56B74CE2B6}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{380837E2-785E-4404-BAB0-D2E53B32AAE3}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{FF8B0803-4E7F-489A-B3B6-A4B53A67238E}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{C763197E-1E7D-402D-9D1B-E1B3807CED17}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{DD2C1DAA-0287-4A71-B70B-CB94FFC2A189}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
